--- a/Raw_data/clean_data_2023.xlsx
+++ b/Raw_data/clean_data_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivarl\Desktop\Dashboard-Regenerative-landbouw\Ruwe_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivarl\Desktop\Dashboard-Regenerative-landbouw\Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B8BEF9-75F7-4D2B-B953-A3F4A6A49F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558055B3-F1A1-4709-94DA-5DEA05AE4E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,10 +120,10 @@
     <t>DS_perc</t>
   </si>
   <si>
-    <t>DS_ton_h</t>
+    <t xml:space="preserve">Meters_gemaaid  </t>
   </si>
   <si>
-    <t xml:space="preserve">Meters_gemaaid  </t>
+    <t>DS_ton_ha</t>
   </si>
 </sst>
 </file>
@@ -131,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -207,7 +207,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -216,22 +216,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -240,296 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -820,14 +528,13 @@
   <dimension ref="A1:AC65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" style="103" customWidth="1"/>
+    <col min="2" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
@@ -842,14 +549,14 @@
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>27</v>
@@ -864,7 +571,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -925,5698 +632,5698 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="104">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="2">
         <v>2023</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>5.09</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>7.6349999999999998</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>22.789783889980349</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>21.9</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>4.9909626719056961</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>43</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>219</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>897</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>75</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>-33</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>928</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>706</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="9">
         <v>634</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="9">
         <v>2.1</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="9">
         <v>112</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="9">
         <v>251</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="9">
         <v>77</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="6">
         <v>76.5</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="5">
         <v>196</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="5">
         <v>27</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="6">
         <v>3.3</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="5">
         <v>489</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="5">
         <v>268</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="2">
         <v>2023</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4.92</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>7.38</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>19.2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>26.016260162601625</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>4.7089430894308943</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>49</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>181</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>895</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>79</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>-19</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>925</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>699</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <v>619</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="9">
         <v>130</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="9">
         <v>256</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="9">
         <v>91</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>76.900000000000006</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <v>158</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="5">
         <v>30</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="6">
         <v>4.5</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="5">
         <v>492</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="5">
         <v>277</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>15</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="2">
         <v>2023</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>5.08</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>7.62</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>16.8</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>22.047244094488189</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>20.5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>4.5196850393700787</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>46</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>205</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>885</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>65</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>-51</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>912</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <v>703</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <v>642</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <v>2.1</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="9">
         <v>86</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <v>254</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="9">
         <v>64</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <v>75.099999999999994</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>201</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <v>24</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="6">
         <v>4.8</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="5">
         <v>510</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <v>283</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>16</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="2">
         <v>2023</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4.96</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>7.4399999999999995</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>22.043010752688168</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>21.3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>4.6951612903225799</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>49</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>213</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>885</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>73</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>-33</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>910</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>699</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <v>627</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>111</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="10">
         <v>256</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>68</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="8">
         <v>75</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <v>172</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <v>27</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="8">
         <v>5.8</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="7">
         <v>518</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <v>278</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="2">
         <v>2023</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="4">
         <v>4.8499999999999996</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="4">
         <v>7.2749999999999995</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="4">
         <v>17</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="4">
         <v>23.36769759450172</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="4">
         <v>19.7</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="4">
         <v>4.603436426116839</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="9">
         <v>43</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="9">
         <v>197</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="9">
         <v>869</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="9">
         <v>76</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="9">
         <v>-16</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="9">
         <v>889</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="9">
         <v>683</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="9">
         <v>603</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="9">
         <v>2.1</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="9">
         <v>131</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="9">
         <v>252</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="9">
         <v>78</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="6">
         <v>74.099999999999994</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="5">
         <v>129</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="5">
         <v>29</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="6">
         <v>6.6</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA6" s="5">
         <v>527</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="5">
         <v>282</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="2">
         <v>2023</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="4">
         <v>5.21</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="4">
         <v>7.8149999999999995</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="4">
         <v>16.8</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="4">
         <v>21.497120921305182</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="4">
         <v>19.7</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="4">
         <v>4.2349328214971207</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="9">
         <v>46</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="9">
         <v>197</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="9">
         <v>830</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="9">
         <v>66</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="9">
         <v>-33</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="9">
         <v>842</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="9">
         <v>666</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="9">
         <v>598</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="9">
         <v>104</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="9">
         <v>273</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="9">
         <v>82</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="6">
         <v>72.5</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="5">
         <v>162</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="5">
         <v>25</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="6">
         <v>4.7</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA7" s="5">
         <v>505</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="5">
         <v>292</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="2">
         <v>13</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="2">
         <v>2023</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="4">
         <v>7.5</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="4">
         <v>24.8</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="4">
         <v>4.7368000000000006</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="9">
         <v>49</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="9">
         <v>191</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="9">
         <v>860</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="9">
         <v>68</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="9">
         <v>-36</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="9">
         <v>882</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="9">
         <v>681</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="9">
         <v>610</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="9">
         <v>103</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="9">
         <v>267</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="9">
         <v>85</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="6">
         <v>74.400000000000006</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="5">
         <v>169</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="5">
         <v>28</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="6">
         <v>5</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="5">
         <v>498</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="5">
         <v>289</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="2">
         <v>14</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="2">
         <v>2023</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="4">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="4">
         <v>7.5299999999999994</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="4">
         <v>18.8</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="4">
         <v>24.966799468791507</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="4">
         <v>5.0183266932270927</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="10">
         <v>44</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="10">
         <v>201</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="10">
         <v>869</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="10">
         <v>70</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="10">
         <v>-32</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="10">
         <v>888</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="10">
         <v>686</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="10">
         <v>613</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="10">
         <v>2.4</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="10">
         <v>109</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="10">
         <v>276</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="10">
         <v>75</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="8">
         <v>74.2</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="7">
         <v>149</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="7">
         <v>29</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="8">
         <v>7.5</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AA9" s="7">
         <v>537</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="7">
         <v>292</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="2">
         <v>2023</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="4">
         <v>5.04</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="4">
         <v>7.5600000000000005</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="4">
         <v>13.8</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="4">
         <v>18.253968253968253</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="4">
         <v>22.4</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="4">
         <v>4.0888888888888886</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="9">
         <v>47</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="9">
         <v>224</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="9">
         <v>903</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="9">
         <v>73</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="9">
         <v>-39</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="9">
         <v>934</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="9">
         <v>711</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="9">
         <v>641</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="9">
         <v>2</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="9">
         <v>105</v>
       </c>
-      <c r="U10" s="26">
+      <c r="U10" s="9">
         <v>243</v>
       </c>
-      <c r="V10" s="26">
+      <c r="V10" s="9">
         <v>63</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="6">
         <v>75.900000000000006</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10" s="5">
         <v>205</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y10" s="5">
         <v>27</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10" s="6">
         <v>6.3</v>
       </c>
-      <c r="AA10" s="22">
+      <c r="AA10" s="5">
         <v>497</v>
       </c>
-      <c r="AB10" s="22">
+      <c r="AB10" s="5">
         <v>262</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="AC10" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="2">
         <v>2023</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="4">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="4">
         <v>7.5299999999999994</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="4">
         <v>17.8</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="4">
         <v>23.638778220451528</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="4">
         <v>4.5859229747675956</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="9">
         <v>50</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="9">
         <v>194</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="9">
         <v>890</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="9">
         <v>76</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="9">
         <v>-26</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="9">
         <v>916</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="9">
         <v>699</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="9">
         <v>623</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="9">
         <v>120</v>
       </c>
-      <c r="U11" s="26">
+      <c r="U11" s="9">
         <v>265</v>
       </c>
-      <c r="V11" s="26">
+      <c r="V11" s="9">
         <v>75</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="6">
         <v>75.599999999999994</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="5">
         <v>148</v>
       </c>
-      <c r="Y11" s="22">
+      <c r="Y11" s="5">
         <v>29</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="6">
         <v>6.3</v>
       </c>
-      <c r="AA11" s="22">
+      <c r="AA11" s="5">
         <v>526</v>
       </c>
-      <c r="AB11" s="22">
+      <c r="AB11" s="5">
         <v>286</v>
       </c>
-      <c r="AC11" s="22">
+      <c r="AC11" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="2">
         <v>2023</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="4">
         <v>7.6499999999999995</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="4">
         <v>21.437908496732025</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="4">
         <v>22.1</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="4">
         <v>4.7377777777777776</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="9">
         <v>46</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="9">
         <v>221</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="9">
         <v>913</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="9">
         <v>72</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="9">
         <v>-46</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="9">
         <v>949</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="9">
         <v>717</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="9">
         <v>650</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="9">
         <v>2</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="9">
         <v>97</v>
       </c>
-      <c r="U12" s="26">
+      <c r="U12" s="9">
         <v>243</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="9">
         <v>70</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="6">
         <v>77.099999999999994</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12" s="5">
         <v>207</v>
       </c>
-      <c r="Y12" s="22">
+      <c r="Y12" s="5">
         <v>26</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="Z12" s="6">
         <v>5.8</v>
       </c>
-      <c r="AA12" s="22">
+      <c r="AA12" s="5">
         <v>484</v>
       </c>
-      <c r="AB12" s="22">
+      <c r="AB12" s="5">
         <v>258</v>
       </c>
-      <c r="AC12" s="22">
+      <c r="AC12" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="2">
         <v>2023</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="4">
         <v>5.07</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="4">
         <v>7.6050000000000004</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="4">
         <v>17</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="4">
         <v>22.353714661406968</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="4">
         <v>4.560157790927021</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="10">
         <v>43</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="10">
         <v>204</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="10">
         <v>881</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="10">
         <v>72</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="10">
         <v>-31</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="10">
         <v>906</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="10">
         <v>691</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="10">
         <v>617</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="10">
         <v>112</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="10">
         <v>266</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="10">
         <v>85</v>
       </c>
-      <c r="W13" s="25">
+      <c r="W13" s="8">
         <v>75.5</v>
       </c>
-      <c r="X13" s="24">
+      <c r="X13" s="7">
         <v>135</v>
       </c>
-      <c r="Y13" s="24">
+      <c r="Y13" s="7">
         <v>29</v>
       </c>
-      <c r="Z13" s="25">
+      <c r="Z13" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA13" s="24">
+      <c r="AA13" s="7">
         <v>532</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13" s="7">
         <v>290</v>
       </c>
-      <c r="AC13" s="24">
+      <c r="AC13" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="2">
         <v>2023</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="4">
         <v>5.14</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="4">
         <v>7.7099999999999991</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="4">
         <v>14.6</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="4">
         <v>18.93644617380026</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="4">
         <v>23.4</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="4">
         <v>4.4311284046692609</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="9">
         <v>43</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="9">
         <v>234</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="9">
         <v>940</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="9">
         <v>71</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="9">
         <v>-57</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="9">
         <v>987</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="9">
         <v>738</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="9">
         <v>679</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14" s="9">
         <v>1.9</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="9">
         <v>85</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="9">
         <v>226</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="9">
         <v>67</v>
       </c>
-      <c r="W14" s="31">
+      <c r="W14" s="6">
         <v>79.099999999999994</v>
       </c>
-      <c r="X14" s="30">
+      <c r="X14" s="5">
         <v>260</v>
       </c>
-      <c r="Y14" s="30">
+      <c r="Y14" s="5">
         <v>23</v>
       </c>
-      <c r="Z14" s="31">
+      <c r="Z14" s="6">
         <v>3.4</v>
       </c>
-      <c r="AA14" s="30">
+      <c r="AA14" s="5">
         <v>453</v>
       </c>
-      <c r="AB14" s="30">
+      <c r="AB14" s="5">
         <v>248</v>
       </c>
-      <c r="AC14" s="30">
+      <c r="AC14" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="2">
         <v>2023</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="4">
         <v>5.18</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="4">
         <v>7.77</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="4">
         <v>21.106821106821108</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="4">
         <v>22.7</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="4">
         <v>4.7912483912483914</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="9">
         <v>48</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="9">
         <v>227</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="9">
         <v>928</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="9">
         <v>73</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="9">
         <v>-49</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="9">
         <v>970</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="9">
         <v>729</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="9">
         <v>664</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="9">
         <v>2</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="9">
         <v>95</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="9">
         <v>236</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="9">
         <v>64</v>
       </c>
-      <c r="W15" s="31">
+      <c r="W15" s="6">
         <v>77.900000000000006</v>
       </c>
-      <c r="X15" s="30">
+      <c r="X15" s="5">
         <v>228</v>
       </c>
-      <c r="Y15" s="30">
+      <c r="Y15" s="5">
         <v>25</v>
       </c>
-      <c r="Z15" s="31">
+      <c r="Z15" s="6">
         <v>6</v>
       </c>
-      <c r="AA15" s="30">
+      <c r="AA15" s="5">
         <v>486</v>
       </c>
-      <c r="AB15" s="30">
+      <c r="AB15" s="5">
         <v>256</v>
       </c>
-      <c r="AC15" s="30">
+      <c r="AC15" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="2">
         <v>2023</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="4">
         <v>5.15</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="4">
         <v>7.7250000000000005</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="4">
         <v>13.4</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="4">
         <v>17.346278317152102</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="4">
         <v>18.5</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="4">
         <v>3.209061488673139</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="9">
         <v>48</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="9">
         <v>185</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="9">
         <v>922</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="9">
         <v>75</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="9">
         <v>-38</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="9">
         <v>960</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="9">
         <v>719</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="9">
         <v>646</v>
       </c>
-      <c r="S16" s="34">
+      <c r="S16" s="9">
         <v>2</v>
       </c>
-      <c r="T16" s="34">
+      <c r="T16" s="9">
         <v>108</v>
       </c>
-      <c r="U16" s="34">
+      <c r="U16" s="9">
         <v>244</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="9">
         <v>72</v>
       </c>
-      <c r="W16" s="31">
+      <c r="W16" s="6">
         <v>77.5</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="5">
         <v>190</v>
       </c>
-      <c r="Y16" s="30">
+      <c r="Y16" s="5">
         <v>29</v>
       </c>
-      <c r="Z16" s="31">
+      <c r="Z16" s="6">
         <v>7.4</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AA16" s="5">
         <v>479</v>
       </c>
-      <c r="AB16" s="30">
+      <c r="AB16" s="5">
         <v>266</v>
       </c>
-      <c r="AC16" s="30">
+      <c r="AC16" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="2">
         <v>2023</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="4">
         <v>7.4700000000000006</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="4">
         <v>15.4</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="4">
         <v>20.615796519410978</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="4">
         <v>21</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="4">
         <v>4.3293172690763058</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="10">
         <v>43</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="10">
         <v>210</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="10">
         <v>898</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="10">
         <v>68</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="10">
         <v>-49</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17" s="10">
         <v>929</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="10">
         <v>710</v>
       </c>
-      <c r="R17" s="35">
+      <c r="R17" s="10">
         <v>646</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="10">
         <v>91</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="10">
         <v>258</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17" s="10">
         <v>67</v>
       </c>
-      <c r="W17" s="33">
+      <c r="W17" s="8">
         <v>76.099999999999994</v>
       </c>
-      <c r="X17" s="32">
+      <c r="X17" s="7">
         <v>195</v>
       </c>
-      <c r="Y17" s="32">
+      <c r="Y17" s="7">
         <v>25</v>
       </c>
-      <c r="Z17" s="33">
+      <c r="Z17" s="8">
         <v>5.4</v>
       </c>
-      <c r="AA17" s="32">
+      <c r="AA17" s="7">
         <v>506</v>
       </c>
-      <c r="AB17" s="32">
+      <c r="AB17" s="7">
         <v>276</v>
       </c>
-      <c r="AC17" s="32">
+      <c r="AC17" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="2">
         <v>2023</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="4">
         <v>5</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="4">
         <v>7.5</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="4">
         <v>6.6</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="4">
         <v>22.2</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="4">
         <v>1.9536000000000002</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="5">
         <v>60</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="5">
         <v>222</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="5">
         <v>885</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="5">
         <v>73</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="5">
         <v>-23</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="5">
         <v>910</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="5">
         <v>687</v>
       </c>
-      <c r="R18" s="38">
+      <c r="R18" s="5">
         <v>601</v>
       </c>
-      <c r="S18" s="39">
+      <c r="S18" s="6">
         <v>2.1</v>
       </c>
-      <c r="T18" s="38">
+      <c r="T18" s="5">
         <v>123</v>
       </c>
-      <c r="U18" s="38">
+      <c r="U18" s="5">
         <v>250</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="5">
         <v>83</v>
       </c>
-      <c r="W18" s="39">
+      <c r="W18" s="6">
         <v>74.900000000000006</v>
       </c>
-      <c r="X18" s="38">
+      <c r="X18" s="5">
         <v>154</v>
       </c>
-      <c r="Y18" s="38">
+      <c r="Y18" s="5">
         <v>35</v>
       </c>
-      <c r="Z18" s="39">
+      <c r="Z18" s="6">
         <v>12</v>
       </c>
-      <c r="AA18" s="38">
+      <c r="AA18" s="5">
         <v>504</v>
       </c>
-      <c r="AB18" s="38">
+      <c r="AB18" s="5">
         <v>277</v>
       </c>
-      <c r="AC18" s="38">
+      <c r="AC18" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="2">
         <v>2023</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="4">
         <v>4.99</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="4">
         <v>7.4850000000000003</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="4">
         <v>8.6</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="4">
         <v>11.489645958583834</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="4">
         <v>22.1</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="4">
         <v>2.5392117568470276</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="5">
         <v>58</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="5">
         <v>221</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="5">
         <v>830</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="5">
         <v>64</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="5">
         <v>-30</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="5">
         <v>841</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="5">
         <v>659</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="5">
         <v>583</v>
       </c>
-      <c r="S19" s="39">
+      <c r="S19" s="6">
         <v>2.4</v>
       </c>
-      <c r="T19" s="38">
+      <c r="T19" s="5">
         <v>108</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="5">
         <v>280</v>
       </c>
-      <c r="V19" s="38">
+      <c r="V19" s="5">
         <v>89</v>
       </c>
-      <c r="W19" s="39">
+      <c r="W19" s="6">
         <v>72.3</v>
       </c>
-      <c r="X19" s="38">
+      <c r="X19" s="5">
         <v>140</v>
       </c>
-      <c r="Y19" s="38">
+      <c r="Y19" s="5">
         <v>30</v>
       </c>
-      <c r="Z19" s="39">
+      <c r="Z19" s="6">
         <v>11.6</v>
       </c>
-      <c r="AA19" s="38">
+      <c r="AA19" s="5">
         <v>533</v>
       </c>
-      <c r="AB19" s="38">
+      <c r="AB19" s="5">
         <v>307</v>
       </c>
-      <c r="AC19" s="38">
+      <c r="AC19" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="2">
         <v>2023</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="4">
         <v>5.19</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="4">
         <v>7.7850000000000001</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="4">
         <v>7.8</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="4">
         <v>10.019267822736031</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="11">
         <v>27</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="4">
         <v>2.705202312138729</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="5">
         <v>61</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="5">
         <v>270</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="5">
         <v>812</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="5">
         <v>58</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="5">
         <v>-39</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="5">
         <v>817</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="5">
         <v>651</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="5">
         <v>582</v>
       </c>
-      <c r="S20" s="39">
+      <c r="S20" s="6">
         <v>2.4</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="5">
         <v>94</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20" s="5">
         <v>280</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="5">
         <v>78</v>
       </c>
-      <c r="W20" s="39">
+      <c r="W20" s="6">
         <v>70.599999999999994</v>
       </c>
-      <c r="X20" s="38">
+      <c r="X20" s="5">
         <v>161</v>
       </c>
-      <c r="Y20" s="38">
+      <c r="Y20" s="5">
         <v>28</v>
       </c>
-      <c r="Z20" s="39">
+      <c r="Z20" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AA20" s="38">
+      <c r="AA20" s="5">
         <v>529</v>
       </c>
-      <c r="AB20" s="38">
+      <c r="AB20" s="5">
         <v>304</v>
       </c>
-      <c r="AC20" s="38">
+      <c r="AC20" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="2">
         <v>16</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="2">
         <v>2023</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="4">
         <v>5.29</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="4">
         <v>7.9350000000000005</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="4">
         <v>12.854442344045367</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="4">
         <v>21.2</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="4">
         <v>2.7251417769376176</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="7">
         <v>57</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="7">
         <v>212</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="7">
         <v>867</v>
       </c>
-      <c r="N21" s="40">
+      <c r="N21" s="7">
         <v>68</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="7">
         <v>-33</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="7">
         <v>888</v>
       </c>
-      <c r="Q21" s="40">
+      <c r="Q21" s="7">
         <v>680</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="7">
         <v>602</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="8">
         <v>2.1</v>
       </c>
-      <c r="T21" s="40">
+      <c r="T21" s="7">
         <v>109</v>
       </c>
-      <c r="U21" s="40">
+      <c r="U21" s="7">
         <v>253</v>
       </c>
-      <c r="V21" s="40">
+      <c r="V21" s="7">
         <v>77</v>
       </c>
-      <c r="W21" s="41">
+      <c r="W21" s="8">
         <v>73.7</v>
       </c>
-      <c r="X21" s="40">
+      <c r="X21" s="7">
         <v>171</v>
       </c>
-      <c r="Y21" s="40">
+      <c r="Y21" s="7">
         <v>32</v>
       </c>
-      <c r="Z21" s="41">
+      <c r="Z21" s="8">
         <v>12</v>
       </c>
-      <c r="AA21" s="40">
+      <c r="AA21" s="7">
         <v>511</v>
       </c>
-      <c r="AB21" s="40">
+      <c r="AB21" s="7">
         <v>293</v>
       </c>
-      <c r="AC21" s="40">
+      <c r="AC21" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="2">
         <v>5</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="2">
         <v>2023</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="4">
         <v>5.32</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="4">
         <v>7.98</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="4">
         <v>8</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="4">
         <v>10.025062656641603</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="4">
         <v>23.3</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="4">
         <v>2.3358395989974938</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="5">
         <v>57</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="5">
         <v>233</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="5">
         <v>844</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="5">
         <v>65</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="5">
         <v>-34</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="5">
         <v>857</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="5">
         <v>671</v>
       </c>
-      <c r="R22" s="45">
+      <c r="R22" s="5">
         <v>597</v>
       </c>
-      <c r="S22" s="46">
+      <c r="S22" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="5">
         <v>105</v>
       </c>
-      <c r="U22" s="45">
+      <c r="U22" s="5">
         <v>272</v>
       </c>
-      <c r="V22" s="45">
+      <c r="V22" s="5">
         <v>72</v>
       </c>
-      <c r="W22" s="46">
+      <c r="W22" s="6">
         <v>72.3</v>
       </c>
-      <c r="X22" s="45">
+      <c r="X22" s="5">
         <v>158</v>
       </c>
-      <c r="Y22" s="45">
+      <c r="Y22" s="5">
         <v>29</v>
       </c>
-      <c r="Z22" s="46">
+      <c r="Z22" s="6">
         <v>9</v>
       </c>
-      <c r="AA22" s="45">
+      <c r="AA22" s="5">
         <v>545</v>
       </c>
-      <c r="AB22" s="45">
+      <c r="AB22" s="5">
         <v>297</v>
       </c>
-      <c r="AC22" s="45">
+      <c r="AC22" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="2">
         <v>6</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="2">
         <v>2023</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="4">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="4">
         <v>7.5299999999999994</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="4">
         <v>7.4</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="4">
         <v>9.8273572377158054</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="4">
         <v>23.7</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="4">
         <v>2.3290836653386457</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="5">
         <v>59</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="5">
         <v>237</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="5">
         <v>841</v>
       </c>
-      <c r="N23" s="45">
+      <c r="N23" s="5">
         <v>62</v>
       </c>
-      <c r="O23" s="45">
+      <c r="O23" s="5">
         <v>-37</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="5">
         <v>853</v>
       </c>
-      <c r="Q23" s="45">
+      <c r="Q23" s="5">
         <v>665</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="5">
         <v>592</v>
       </c>
-      <c r="S23" s="46">
+      <c r="S23" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T23" s="45">
+      <c r="T23" s="5">
         <v>100</v>
       </c>
-      <c r="U23" s="45">
+      <c r="U23" s="5">
         <v>261</v>
       </c>
-      <c r="V23" s="45">
+      <c r="V23" s="5">
         <v>75</v>
       </c>
-      <c r="W23" s="46">
+      <c r="W23" s="6">
         <v>71.900000000000006</v>
       </c>
-      <c r="X23" s="45">
+      <c r="X23" s="5">
         <v>154</v>
       </c>
-      <c r="Y23" s="45">
+      <c r="Y23" s="5">
         <v>30</v>
       </c>
-      <c r="Z23" s="46">
+      <c r="Z23" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AA23" s="45">
+      <c r="AA23" s="5">
         <v>537</v>
       </c>
-      <c r="AB23" s="45">
+      <c r="AB23" s="5">
         <v>301</v>
       </c>
-      <c r="AC23" s="45">
+      <c r="AC23" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="2">
         <v>13</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="2">
         <v>2023</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="4">
         <v>5.19</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="4">
         <v>7.7850000000000001</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="4">
         <v>11.30378933847142</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="4">
         <v>2.3059730250481696</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="5">
         <v>60</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="5">
         <v>204</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="5">
         <v>901</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="5">
         <v>74</v>
       </c>
-      <c r="O24" s="45">
+      <c r="O24" s="5">
         <v>-27</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="5">
         <v>930</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="Q24" s="5">
         <v>699</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="5">
         <v>615</v>
       </c>
-      <c r="S24" s="46">
+      <c r="S24" s="6">
         <v>2.1</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="5">
         <v>120</v>
       </c>
-      <c r="U24" s="45">
+      <c r="U24" s="5">
         <v>246</v>
       </c>
-      <c r="V24" s="45">
+      <c r="V24" s="5">
         <v>78</v>
       </c>
-      <c r="W24" s="46">
+      <c r="W24" s="6">
         <v>75.8</v>
       </c>
-      <c r="X24" s="45">
+      <c r="X24" s="5">
         <v>172</v>
       </c>
-      <c r="Y24" s="45">
+      <c r="Y24" s="5">
         <v>34</v>
       </c>
-      <c r="Z24" s="46">
+      <c r="Z24" s="6">
         <v>9.9</v>
       </c>
-      <c r="AA24" s="45">
+      <c r="AA24" s="5">
         <v>491</v>
       </c>
-      <c r="AB24" s="45">
+      <c r="AB24" s="5">
         <v>280</v>
       </c>
-      <c r="AC24" s="45">
+      <c r="AC24" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="2">
         <v>14</v>
       </c>
-      <c r="C25" s="104">
+      <c r="C25" s="2">
         <v>2</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="2">
         <v>2023</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="4">
         <v>4.88</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="4">
         <v>7.32</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="4">
         <v>8.6</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="4">
         <v>11.748633879781421</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="4">
         <v>2.3967213114754098</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="7">
         <v>59</v>
       </c>
-      <c r="L25" s="47">
+      <c r="L25" s="7">
         <v>204</v>
       </c>
-      <c r="M25" s="47">
+      <c r="M25" s="7">
         <v>881</v>
       </c>
-      <c r="N25" s="47">
+      <c r="N25" s="7">
         <v>71</v>
       </c>
-      <c r="O25" s="47">
+      <c r="O25" s="7">
         <v>-29</v>
       </c>
-      <c r="P25" s="47">
+      <c r="P25" s="7">
         <v>906</v>
       </c>
-      <c r="Q25" s="47">
+      <c r="Q25" s="7">
         <v>687</v>
       </c>
-      <c r="R25" s="47">
+      <c r="R25" s="7">
         <v>606</v>
       </c>
-      <c r="S25" s="48">
+      <c r="S25" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T25" s="47">
+      <c r="T25" s="7">
         <v>116</v>
       </c>
-      <c r="U25" s="47">
+      <c r="U25" s="7">
         <v>262</v>
       </c>
-      <c r="V25" s="47">
+      <c r="V25" s="7">
         <v>86</v>
       </c>
-      <c r="W25" s="48">
+      <c r="W25" s="8">
         <v>75.2</v>
       </c>
-      <c r="X25" s="47">
+      <c r="X25" s="7">
         <v>153</v>
       </c>
-      <c r="Y25" s="47">
+      <c r="Y25" s="7">
         <v>33</v>
       </c>
-      <c r="Z25" s="48">
+      <c r="Z25" s="8">
         <v>11.9</v>
       </c>
-      <c r="AA25" s="47">
+      <c r="AA25" s="7">
         <v>515</v>
       </c>
-      <c r="AB25" s="47">
+      <c r="AB25" s="7">
         <v>289</v>
       </c>
-      <c r="AC25" s="47">
+      <c r="AC25" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="2">
         <v>2023</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="4">
         <v>7.4700000000000006</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="4">
         <v>7.8</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="4">
         <v>10.441767068273091</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="4">
         <v>24.2</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="4">
         <v>2.5269076305220879</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="5">
         <v>59</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="5">
         <v>242</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="5">
         <v>840</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N26" s="5">
         <v>61</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="5">
         <v>-40</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="5">
         <v>852</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="5">
         <v>669</v>
       </c>
-      <c r="R26" s="51">
+      <c r="R26" s="5">
         <v>600</v>
       </c>
-      <c r="S26" s="52">
+      <c r="S26" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T26" s="51">
+      <c r="T26" s="5">
         <v>96</v>
       </c>
-      <c r="U26" s="51">
+      <c r="U26" s="5">
         <v>262</v>
       </c>
-      <c r="V26" s="51">
+      <c r="V26" s="5">
         <v>69</v>
       </c>
-      <c r="W26" s="52">
+      <c r="W26" s="6">
         <v>71.900000000000006</v>
       </c>
-      <c r="X26" s="51">
+      <c r="X26" s="5">
         <v>188</v>
       </c>
-      <c r="Y26" s="51">
+      <c r="Y26" s="5">
         <v>28</v>
       </c>
-      <c r="Z26" s="52">
+      <c r="Z26" s="6">
         <v>8</v>
       </c>
-      <c r="AA26" s="51">
+      <c r="AA26" s="5">
         <v>519</v>
       </c>
-      <c r="AB26" s="51">
+      <c r="AB26" s="5">
         <v>283</v>
       </c>
-      <c r="AC26" s="51">
+      <c r="AC26" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="2">
         <v>2</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="2">
         <v>2023</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="4">
         <v>5.09</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="4">
         <v>7.6349999999999998</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="4">
         <v>7.4</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="4">
         <v>9.6922069417157832</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="4">
         <v>24.7</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="4">
         <v>2.3939751146037982</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="5">
         <v>62</v>
       </c>
-      <c r="L27" s="51">
+      <c r="L27" s="5">
         <v>247</v>
       </c>
-      <c r="M27" s="51">
+      <c r="M27" s="5">
         <v>877</v>
       </c>
-      <c r="N27" s="51">
+      <c r="N27" s="5">
         <v>67</v>
       </c>
-      <c r="O27" s="51">
+      <c r="O27" s="5">
         <v>-40</v>
       </c>
-      <c r="P27" s="51">
+      <c r="P27" s="5">
         <v>902</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="5">
         <v>690</v>
       </c>
-      <c r="R27" s="51">
+      <c r="R27" s="5">
         <v>618</v>
       </c>
-      <c r="S27" s="52">
+      <c r="S27" s="6">
         <v>2</v>
       </c>
-      <c r="T27" s="51">
+      <c r="T27" s="5">
         <v>101</v>
       </c>
-      <c r="U27" s="51">
+      <c r="U27" s="5">
         <v>239</v>
       </c>
-      <c r="V27" s="51">
+      <c r="V27" s="5">
         <v>72</v>
       </c>
-      <c r="W27" s="52">
+      <c r="W27" s="6">
         <v>74.400000000000006</v>
       </c>
-      <c r="X27" s="51">
+      <c r="X27" s="5">
         <v>203</v>
       </c>
-      <c r="Y27" s="51">
+      <c r="Y27" s="5">
         <v>29</v>
       </c>
-      <c r="Z27" s="52">
+      <c r="Z27" s="6">
         <v>8.5</v>
       </c>
-      <c r="AA27" s="51">
+      <c r="AA27" s="5">
         <v>489</v>
       </c>
-      <c r="AB27" s="51">
+      <c r="AB27" s="5">
         <v>267</v>
       </c>
-      <c r="AC27" s="51">
+      <c r="AC27" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="2">
         <v>11</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="2">
         <v>2023</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="4">
         <v>5.08</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="4">
         <v>7.62</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="4">
         <v>8.4</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="4">
         <v>11.023622047244094</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="4">
         <v>23.1</v>
       </c>
-      <c r="J28" s="50">
+      <c r="J28" s="4">
         <v>2.5464566929133863</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="5">
         <v>60</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L28" s="5">
         <v>231</v>
       </c>
-      <c r="M28" s="51">
+      <c r="M28" s="5">
         <v>851</v>
       </c>
-      <c r="N28" s="51">
+      <c r="N28" s="5">
         <v>64</v>
       </c>
-      <c r="O28" s="51">
+      <c r="O28" s="5">
         <v>-36</v>
       </c>
-      <c r="P28" s="51">
+      <c r="P28" s="5">
         <v>869</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="5">
         <v>670</v>
       </c>
-      <c r="R28" s="51">
+      <c r="R28" s="5">
         <v>596</v>
       </c>
-      <c r="S28" s="52">
+      <c r="S28" s="6">
         <v>2.1</v>
       </c>
-      <c r="T28" s="51">
+      <c r="T28" s="5">
         <v>102</v>
       </c>
-      <c r="U28" s="51">
+      <c r="U28" s="5">
         <v>248</v>
       </c>
-      <c r="V28" s="51">
+      <c r="V28" s="5">
         <v>85</v>
       </c>
-      <c r="W28" s="52">
+      <c r="W28" s="6">
         <v>73.2</v>
       </c>
-      <c r="X28" s="51">
+      <c r="X28" s="5">
         <v>169</v>
       </c>
-      <c r="Y28" s="51">
+      <c r="Y28" s="5">
         <v>30</v>
       </c>
-      <c r="Z28" s="52">
+      <c r="Z28" s="6">
         <v>9</v>
       </c>
-      <c r="AA28" s="51">
+      <c r="AA28" s="5">
         <v>504</v>
       </c>
-      <c r="AB28" s="51">
+      <c r="AB28" s="5">
         <v>288</v>
       </c>
-      <c r="AC28" s="51">
+      <c r="AC28" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="2">
         <v>12</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="2">
         <v>2023</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="4">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="4">
         <v>7.5299999999999994</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29" s="4">
         <v>9.4</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="4">
         <v>12.483399734395753</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="4">
         <v>21</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="4">
         <v>2.6215139442231083</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="7">
         <v>57</v>
       </c>
-      <c r="L29" s="53">
+      <c r="L29" s="7">
         <v>210</v>
       </c>
-      <c r="M29" s="53">
+      <c r="M29" s="7">
         <v>870</v>
       </c>
-      <c r="N29" s="53">
+      <c r="N29" s="7">
         <v>68</v>
       </c>
-      <c r="O29" s="53">
+      <c r="O29" s="7">
         <v>-34</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="7">
         <v>895</v>
       </c>
-      <c r="Q29" s="53">
+      <c r="Q29" s="7">
         <v>683</v>
       </c>
-      <c r="R29" s="53">
+      <c r="R29" s="7">
         <v>606</v>
       </c>
-      <c r="S29" s="54">
+      <c r="S29" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T29" s="53">
+      <c r="T29" s="7">
         <v>107</v>
       </c>
-      <c r="U29" s="53">
+      <c r="U29" s="7">
         <v>256</v>
       </c>
-      <c r="V29" s="53">
+      <c r="V29" s="7">
         <v>90</v>
       </c>
-      <c r="W29" s="54">
+      <c r="W29" s="8">
         <v>75</v>
       </c>
-      <c r="X29" s="53">
+      <c r="X29" s="7">
         <v>182</v>
       </c>
-      <c r="Y29" s="53">
+      <c r="Y29" s="7">
         <v>31</v>
       </c>
-      <c r="Z29" s="54">
+      <c r="Z29" s="8">
         <v>10</v>
       </c>
-      <c r="AA29" s="53">
+      <c r="AA29" s="7">
         <v>488</v>
       </c>
-      <c r="AB29" s="53">
+      <c r="AB29" s="7">
         <v>280</v>
       </c>
-      <c r="AC29" s="53">
+      <c r="AC29" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="2">
         <v>2023</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="4">
         <v>5.23</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="4">
         <v>7.8450000000000006</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="4">
         <v>6.6</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="4">
         <v>8.4130019120458872</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="4">
         <v>26.2</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J30" s="4">
         <v>2.2042065009560226</v>
       </c>
-      <c r="K30" s="57">
+      <c r="K30" s="5">
         <v>59</v>
       </c>
-      <c r="L30" s="57">
+      <c r="L30" s="5">
         <v>262</v>
       </c>
-      <c r="M30" s="57">
+      <c r="M30" s="5">
         <v>878</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="5">
         <v>69</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="5">
         <v>-32</v>
       </c>
-      <c r="P30" s="57">
+      <c r="P30" s="5">
         <v>904</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="Q30" s="5">
         <v>683</v>
       </c>
-      <c r="R30" s="57">
+      <c r="R30" s="5">
         <v>603</v>
       </c>
-      <c r="S30" s="58">
+      <c r="S30" s="6">
         <v>1.9</v>
       </c>
-      <c r="T30" s="57">
+      <c r="T30" s="5">
         <v>111</v>
       </c>
-      <c r="U30" s="57">
+      <c r="U30" s="5">
         <v>234</v>
       </c>
-      <c r="V30" s="57">
+      <c r="V30" s="5">
         <v>84</v>
       </c>
-      <c r="W30" s="58">
+      <c r="W30" s="6">
         <v>74.599999999999994</v>
       </c>
-      <c r="X30" s="57">
+      <c r="X30" s="5">
         <v>178</v>
       </c>
-      <c r="Y30" s="57">
+      <c r="Y30" s="5">
         <v>33</v>
       </c>
-      <c r="Z30" s="58">
+      <c r="Z30" s="6">
         <v>10.7</v>
       </c>
-      <c r="AA30" s="57">
+      <c r="AA30" s="5">
         <v>477</v>
       </c>
-      <c r="AB30" s="57">
+      <c r="AB30" s="5">
         <v>271</v>
       </c>
-      <c r="AC30" s="57">
+      <c r="AC30" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="55">
+      <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="2">
         <v>2</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="2">
         <v>2023</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="4">
         <v>5.34</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="4">
         <v>8.01</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="4">
         <v>6.8</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="4">
         <v>8.489388264669163</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="4">
         <v>22.3</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J31" s="4">
         <v>1.8931335830212235</v>
       </c>
-      <c r="K31" s="57">
+      <c r="K31" s="5">
         <v>58</v>
       </c>
-      <c r="L31" s="57">
+      <c r="L31" s="5">
         <v>223</v>
       </c>
-      <c r="M31" s="57">
+      <c r="M31" s="5">
         <v>879</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="5">
         <v>66</v>
       </c>
-      <c r="O31" s="57">
+      <c r="O31" s="5">
         <v>-42</v>
       </c>
-      <c r="P31" s="57">
+      <c r="P31" s="5">
         <v>905</v>
       </c>
-      <c r="Q31" s="57">
+      <c r="Q31" s="5">
         <v>690</v>
       </c>
-      <c r="R31" s="57">
+      <c r="R31" s="5">
         <v>617</v>
       </c>
-      <c r="S31" s="58">
+      <c r="S31" s="6">
         <v>2.1</v>
       </c>
-      <c r="T31" s="57">
+      <c r="T31" s="5">
         <v>98</v>
       </c>
-      <c r="U31" s="57">
+      <c r="U31" s="5">
         <v>248</v>
       </c>
-      <c r="V31" s="57">
+      <c r="V31" s="5">
         <v>78</v>
       </c>
-      <c r="W31" s="58">
+      <c r="W31" s="6">
         <v>74.8</v>
       </c>
-      <c r="X31" s="57">
+      <c r="X31" s="5">
         <v>189</v>
       </c>
-      <c r="Y31" s="57">
+      <c r="Y31" s="5">
         <v>30</v>
       </c>
-      <c r="Z31" s="58">
+      <c r="Z31" s="6">
         <v>13</v>
       </c>
-      <c r="AA31" s="57">
+      <c r="AA31" s="5">
         <v>500</v>
       </c>
-      <c r="AB31" s="57">
+      <c r="AB31" s="5">
         <v>279</v>
       </c>
-      <c r="AC31" s="57">
+      <c r="AC31" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="55">
+      <c r="B32" s="2">
         <v>9</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="2">
         <v>2023</v>
       </c>
-      <c r="E32" s="56">
+      <c r="E32" s="4">
         <v>5.1100000000000003</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="4">
         <v>7.6650000000000009</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="4">
         <v>7.4</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="4">
         <v>9.6542726679712985</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I32" s="4">
         <v>24.3</v>
       </c>
-      <c r="J32" s="56">
+      <c r="J32" s="4">
         <v>2.3459882583170257</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="5">
         <v>58</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="5">
         <v>243</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="5">
         <v>838</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="5">
         <v>60</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="5">
         <v>-42</v>
       </c>
-      <c r="P32" s="57">
+      <c r="P32" s="5">
         <v>851</v>
       </c>
-      <c r="Q32" s="57">
+      <c r="Q32" s="5">
         <v>666</v>
       </c>
-      <c r="R32" s="57">
+      <c r="R32" s="5">
         <v>597</v>
       </c>
-      <c r="S32" s="58">
+      <c r="S32" s="6">
         <v>2.4</v>
       </c>
-      <c r="T32" s="57">
+      <c r="T32" s="5">
         <v>92</v>
       </c>
-      <c r="U32" s="57">
+      <c r="U32" s="5">
         <v>277</v>
       </c>
-      <c r="V32" s="57">
+      <c r="V32" s="5">
         <v>77</v>
       </c>
-      <c r="W32" s="58">
+      <c r="W32" s="6">
         <v>72.2</v>
       </c>
-      <c r="X32" s="57">
+      <c r="X32" s="5">
         <v>157</v>
       </c>
-      <c r="Y32" s="57">
+      <c r="Y32" s="5">
         <v>29</v>
       </c>
-      <c r="Z32" s="58">
+      <c r="Z32" s="6">
         <v>12.5</v>
       </c>
-      <c r="AA32" s="57">
+      <c r="AA32" s="5">
         <v>550</v>
       </c>
-      <c r="AB32" s="57">
+      <c r="AB32" s="5">
         <v>303</v>
       </c>
-      <c r="AC32" s="57">
+      <c r="AC32" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="55">
+      <c r="B33" s="2">
         <v>10</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="2">
         <v>2</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="2">
         <v>2023</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="4">
         <v>7.3500000000000005</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="4">
         <v>6.8</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="4">
         <v>9.2517006802721085</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="4">
         <v>23.1</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="4">
         <v>2.137142857142857</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="7">
         <v>60</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="7">
         <v>231</v>
       </c>
-      <c r="M33" s="59">
+      <c r="M33" s="7">
         <v>910</v>
       </c>
-      <c r="N33" s="59">
+      <c r="N33" s="7">
         <v>73</v>
       </c>
-      <c r="O33" s="59">
+      <c r="O33" s="7">
         <v>-33</v>
       </c>
-      <c r="P33" s="59">
+      <c r="P33" s="7">
         <v>944</v>
       </c>
-      <c r="Q33" s="59">
+      <c r="Q33" s="7">
         <v>704</v>
       </c>
-      <c r="R33" s="59">
+      <c r="R33" s="7">
         <v>622</v>
       </c>
-      <c r="S33" s="60">
+      <c r="S33" s="8">
         <v>2.1</v>
       </c>
-      <c r="T33" s="59">
+      <c r="T33" s="7">
         <v>113</v>
       </c>
-      <c r="U33" s="59">
+      <c r="U33" s="7">
         <v>245</v>
       </c>
-      <c r="V33" s="59">
+      <c r="V33" s="7">
         <v>80</v>
       </c>
-      <c r="W33" s="60">
+      <c r="W33" s="8">
         <v>76.5</v>
       </c>
-      <c r="X33" s="59">
+      <c r="X33" s="7">
         <v>165</v>
       </c>
-      <c r="Y33" s="59">
+      <c r="Y33" s="7">
         <v>34</v>
       </c>
-      <c r="Z33" s="60">
+      <c r="Z33" s="8">
         <v>13</v>
       </c>
-      <c r="AA33" s="59">
+      <c r="AA33" s="7">
         <v>490</v>
       </c>
-      <c r="AB33" s="59">
+      <c r="AB33" s="7">
         <v>275</v>
       </c>
-      <c r="AC33" s="59">
+      <c r="AC33" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="2">
         <v>7</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="2">
         <v>3</v>
       </c>
-      <c r="D34" s="104">
+      <c r="D34" s="2">
         <v>2023</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="4">
         <v>5.03</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="4">
         <v>7.5449999999999999</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="4">
         <v>15.4</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="4">
         <v>20.410868124585818</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="4">
         <v>3.5514910536779318</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K34" s="5">
         <v>54</v>
       </c>
-      <c r="L34" s="63">
+      <c r="L34" s="5">
         <v>174</v>
       </c>
-      <c r="M34" s="63">
+      <c r="M34" s="5">
         <v>883</v>
       </c>
-      <c r="N34" s="63">
+      <c r="N34" s="5">
         <v>76</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O34" s="5">
         <v>-19</v>
       </c>
-      <c r="P34" s="63">
+      <c r="P34" s="5">
         <v>908</v>
       </c>
-      <c r="Q34" s="63">
+      <c r="Q34" s="5">
         <v>689</v>
       </c>
-      <c r="R34" s="63">
+      <c r="R34" s="5">
         <v>600</v>
       </c>
-      <c r="S34" s="64">
+      <c r="S34" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T34" s="63">
+      <c r="T34" s="5">
         <v>133</v>
       </c>
-      <c r="U34" s="63">
+      <c r="U34" s="5">
         <v>261</v>
       </c>
-      <c r="V34" s="63">
+      <c r="V34" s="5">
         <v>89</v>
       </c>
-      <c r="W34" s="64">
+      <c r="W34" s="6">
         <v>75.599999999999994</v>
       </c>
-      <c r="X34" s="63">
+      <c r="X34" s="5">
         <v>147</v>
       </c>
-      <c r="Y34" s="63">
+      <c r="Y34" s="5">
         <v>33</v>
       </c>
-      <c r="Z34" s="64">
+      <c r="Z34" s="6">
         <v>10.9</v>
       </c>
-      <c r="AA34" s="63">
+      <c r="AA34" s="5">
         <v>527</v>
       </c>
-      <c r="AB34" s="63">
+      <c r="AB34" s="5">
         <v>286</v>
       </c>
-      <c r="AC34" s="63">
+      <c r="AC34" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="61">
+      <c r="B35" s="2">
         <v>8</v>
       </c>
-      <c r="C35" s="104">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="D35" s="104">
+      <c r="D35" s="2">
         <v>2023</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="4">
         <v>5.09</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="4">
         <v>7.6349999999999998</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="4">
         <v>14.4</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="4">
         <v>18.860510805500983</v>
       </c>
-      <c r="I35" s="62">
+      <c r="I35" s="4">
         <v>15.8</v>
       </c>
-      <c r="J35" s="62">
+      <c r="J35" s="4">
         <v>2.9799607072691554</v>
       </c>
-      <c r="K35" s="63">
+      <c r="K35" s="5">
         <v>58</v>
       </c>
-      <c r="L35" s="63">
+      <c r="L35" s="5">
         <v>158</v>
       </c>
-      <c r="M35" s="63">
+      <c r="M35" s="5">
         <v>863</v>
       </c>
-      <c r="N35" s="63">
+      <c r="N35" s="5">
         <v>74</v>
       </c>
-      <c r="O35" s="63">
+      <c r="O35" s="5">
         <v>-15</v>
       </c>
-      <c r="P35" s="63">
+      <c r="P35" s="5">
         <v>882</v>
       </c>
-      <c r="Q35" s="63">
+      <c r="Q35" s="5">
         <v>674</v>
       </c>
-      <c r="R35" s="63">
+      <c r="R35" s="5">
         <v>583</v>
       </c>
-      <c r="S35" s="64">
+      <c r="S35" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T35" s="63">
+      <c r="T35" s="5">
         <v>136</v>
       </c>
-      <c r="U35" s="63">
+      <c r="U35" s="5">
         <v>263</v>
       </c>
-      <c r="V35" s="63">
+      <c r="V35" s="5">
         <v>93</v>
       </c>
-      <c r="W35" s="64">
+      <c r="W35" s="6">
         <v>74.3</v>
       </c>
-      <c r="X35" s="63">
+      <c r="X35" s="5">
         <v>134</v>
       </c>
-      <c r="Y35" s="63">
+      <c r="Y35" s="5">
         <v>34</v>
       </c>
-      <c r="Z35" s="64">
+      <c r="Z35" s="6">
         <v>12.5</v>
       </c>
-      <c r="AA35" s="63">
+      <c r="AA35" s="5">
         <v>527</v>
       </c>
-      <c r="AB35" s="63">
+      <c r="AB35" s="5">
         <v>293</v>
       </c>
-      <c r="AC35" s="63">
+      <c r="AC35" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="2">
         <v>15</v>
       </c>
-      <c r="C36" s="104">
+      <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="104">
+      <c r="D36" s="2">
         <v>2023</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="4">
         <v>5.1100000000000003</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="4">
         <v>7.6650000000000009</v>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="4">
         <v>10.4</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="4">
         <v>13.568166992824526</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="4">
         <v>20.3</v>
       </c>
-      <c r="J36" s="62">
+      <c r="J36" s="4">
         <v>2.7543378995433789</v>
       </c>
-      <c r="K36" s="63">
+      <c r="K36" s="5">
         <v>50</v>
       </c>
-      <c r="L36" s="63">
+      <c r="L36" s="5">
         <v>203</v>
       </c>
-      <c r="M36" s="63">
+      <c r="M36" s="5">
         <v>853</v>
       </c>
-      <c r="N36" s="63">
+      <c r="N36" s="5">
         <v>69</v>
       </c>
-      <c r="O36" s="63">
+      <c r="O36" s="5">
         <v>-28</v>
       </c>
-      <c r="P36" s="63">
+      <c r="P36" s="5">
         <v>873</v>
       </c>
-      <c r="Q36" s="63">
+      <c r="Q36" s="5">
         <v>673</v>
       </c>
-      <c r="R36" s="63">
+      <c r="R36" s="5">
         <v>593</v>
       </c>
-      <c r="S36" s="64">
+      <c r="S36" s="6">
         <v>2.1</v>
       </c>
-      <c r="T36" s="63">
+      <c r="T36" s="5">
         <v>118</v>
       </c>
-      <c r="U36" s="63">
+      <c r="U36" s="5">
         <v>254</v>
       </c>
-      <c r="V36" s="63">
+      <c r="V36" s="5">
         <v>94</v>
       </c>
-      <c r="W36" s="64">
+      <c r="W36" s="6">
         <v>74.3</v>
       </c>
-      <c r="X36" s="63">
+      <c r="X36" s="5">
         <v>172</v>
       </c>
-      <c r="Y36" s="63">
+      <c r="Y36" s="5">
         <v>29</v>
       </c>
-      <c r="Z36" s="64">
+      <c r="Z36" s="6">
         <v>8.6</v>
       </c>
-      <c r="AA36" s="63">
+      <c r="AA36" s="5">
         <v>503</v>
       </c>
-      <c r="AB36" s="63">
+      <c r="AB36" s="5">
         <v>269</v>
       </c>
-      <c r="AC36" s="63">
+      <c r="AC36" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="61">
+      <c r="B37" s="2">
         <v>16</v>
       </c>
-      <c r="C37" s="104">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="104">
+      <c r="D37" s="2">
         <v>2023</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="4">
         <v>5.04</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="4">
         <v>7.5600000000000005</v>
       </c>
-      <c r="G37" s="62">
+      <c r="G37" s="4">
         <v>15.2</v>
       </c>
-      <c r="H37" s="62">
+      <c r="H37" s="4">
         <v>20.105820105820101</v>
       </c>
-      <c r="I37" s="62">
+      <c r="I37" s="4">
         <v>14.9</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J37" s="4">
         <v>2.9957671957671947</v>
       </c>
-      <c r="K37" s="65">
+      <c r="K37" s="7">
         <v>56</v>
       </c>
-      <c r="L37" s="65">
+      <c r="L37" s="7">
         <v>149</v>
       </c>
-      <c r="M37" s="65">
+      <c r="M37" s="7">
         <v>876</v>
       </c>
-      <c r="N37" s="65">
+      <c r="N37" s="7">
         <v>76</v>
       </c>
-      <c r="O37" s="65">
+      <c r="O37" s="7">
         <v>-15</v>
       </c>
-      <c r="P37" s="65">
+      <c r="P37" s="7">
         <v>900</v>
       </c>
-      <c r="Q37" s="65">
+      <c r="Q37" s="7">
         <v>680</v>
       </c>
-      <c r="R37" s="65">
+      <c r="R37" s="7">
         <v>589</v>
       </c>
-      <c r="S37" s="66">
+      <c r="S37" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T37" s="65">
+      <c r="T37" s="7">
         <v>137</v>
       </c>
-      <c r="U37" s="65">
+      <c r="U37" s="7">
         <v>257</v>
       </c>
-      <c r="V37" s="65">
+      <c r="V37" s="7">
         <v>98</v>
       </c>
-      <c r="W37" s="66">
+      <c r="W37" s="8">
         <v>75.400000000000006</v>
       </c>
-      <c r="X37" s="65">
+      <c r="X37" s="7">
         <v>125</v>
       </c>
-      <c r="Y37" s="65">
+      <c r="Y37" s="7">
         <v>34</v>
       </c>
-      <c r="Z37" s="66">
+      <c r="Z37" s="8">
         <v>12.3</v>
       </c>
-      <c r="AA37" s="65">
+      <c r="AA37" s="7">
         <v>523</v>
       </c>
-      <c r="AB37" s="65">
+      <c r="AB37" s="7">
         <v>287</v>
       </c>
-      <c r="AC37" s="65">
+      <c r="AC37" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B38" s="2">
         <v>5</v>
       </c>
-      <c r="C38" s="104">
+      <c r="C38" s="2">
         <v>3</v>
       </c>
-      <c r="D38" s="104">
+      <c r="D38" s="2">
         <v>2023</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="4">
         <v>5.23</v>
       </c>
-      <c r="F38" s="68">
+      <c r="F38" s="4">
         <v>7.8450000000000006</v>
       </c>
-      <c r="G38" s="68">
+      <c r="G38" s="4">
         <v>14.6</v>
       </c>
-      <c r="H38" s="68">
+      <c r="H38" s="4">
         <v>18.610579987253026</v>
       </c>
-      <c r="I38" s="68">
+      <c r="I38" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="J38" s="68">
+      <c r="J38" s="4">
         <v>2.9963033779477377</v>
       </c>
-      <c r="K38" s="69">
+      <c r="K38" s="5">
         <v>57</v>
       </c>
-      <c r="L38" s="69">
+      <c r="L38" s="5">
         <v>161</v>
       </c>
-      <c r="M38" s="69">
+      <c r="M38" s="5">
         <v>832</v>
       </c>
-      <c r="N38" s="69">
+      <c r="N38" s="5">
         <v>67</v>
       </c>
-      <c r="O38" s="69">
+      <c r="O38" s="5">
         <v>-21</v>
       </c>
-      <c r="P38" s="69">
+      <c r="P38" s="5">
         <v>844</v>
       </c>
-      <c r="Q38" s="69">
+      <c r="Q38" s="5">
         <v>656</v>
       </c>
-      <c r="R38" s="69">
+      <c r="R38" s="5">
         <v>571</v>
       </c>
-      <c r="S38" s="70">
+      <c r="S38" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T38" s="69">
+      <c r="T38" s="5">
         <v>123</v>
       </c>
-      <c r="U38" s="69">
+      <c r="U38" s="5">
         <v>269</v>
       </c>
-      <c r="V38" s="69">
+      <c r="V38" s="5">
         <v>94</v>
       </c>
-      <c r="W38" s="70">
+      <c r="W38" s="6">
         <v>72.400000000000006</v>
       </c>
-      <c r="X38" s="69">
+      <c r="X38" s="5">
         <v>131</v>
       </c>
-      <c r="Y38" s="69">
+      <c r="Y38" s="5">
         <v>32</v>
       </c>
-      <c r="Z38" s="70">
+      <c r="Z38" s="6">
         <v>11.2</v>
       </c>
-      <c r="AA38" s="69">
+      <c r="AA38" s="5">
         <v>551</v>
       </c>
-      <c r="AB38" s="69">
+      <c r="AB38" s="5">
         <v>298</v>
       </c>
-      <c r="AC38" s="69">
+      <c r="AC38" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="67">
+      <c r="B39" s="2">
         <v>6</v>
       </c>
-      <c r="C39" s="104">
+      <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="D39" s="104">
+      <c r="D39" s="2">
         <v>2023</v>
       </c>
-      <c r="E39" s="68">
+      <c r="E39" s="4">
         <v>5.26</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="4">
         <v>7.89</v>
       </c>
-      <c r="G39" s="68">
+      <c r="G39" s="4">
         <v>14.4</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="4">
         <v>18.250950570342205</v>
       </c>
-      <c r="I39" s="68">
+      <c r="I39" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="J39" s="68">
+      <c r="J39" s="4">
         <v>3.358174904942965</v>
       </c>
-      <c r="K39" s="69">
+      <c r="K39" s="5">
         <v>58</v>
       </c>
-      <c r="L39" s="69">
+      <c r="L39" s="5">
         <v>184</v>
       </c>
-      <c r="M39" s="69">
+      <c r="M39" s="5">
         <v>842</v>
       </c>
-      <c r="N39" s="69">
+      <c r="N39" s="5">
         <v>71</v>
       </c>
-      <c r="O39" s="69">
+      <c r="O39" s="5">
         <v>-17</v>
       </c>
-      <c r="P39" s="69">
+      <c r="P39" s="5">
         <v>855</v>
       </c>
-      <c r="Q39" s="69">
+      <c r="Q39" s="5">
         <v>661</v>
       </c>
-      <c r="R39" s="69">
+      <c r="R39" s="5">
         <v>574</v>
       </c>
-      <c r="S39" s="70">
+      <c r="S39" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T39" s="69">
+      <c r="T39" s="5">
         <v>131</v>
       </c>
-      <c r="U39" s="69">
+      <c r="U39" s="5">
         <v>258</v>
       </c>
-      <c r="V39" s="69">
+      <c r="V39" s="5">
         <v>93</v>
       </c>
-      <c r="W39" s="70">
+      <c r="W39" s="6">
         <v>72.900000000000006</v>
       </c>
-      <c r="X39" s="69">
+      <c r="X39" s="5">
         <v>132</v>
       </c>
-      <c r="Y39" s="69">
+      <c r="Y39" s="5">
         <v>32</v>
       </c>
-      <c r="Z39" s="70">
+      <c r="Z39" s="6">
         <v>9.4</v>
       </c>
-      <c r="AA39" s="69">
+      <c r="AA39" s="5">
         <v>530</v>
       </c>
-      <c r="AB39" s="69">
+      <c r="AB39" s="5">
         <v>296</v>
       </c>
-      <c r="AC39" s="69">
+      <c r="AC39" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="67">
+      <c r="B40" s="2">
         <v>13</v>
       </c>
-      <c r="C40" s="104">
+      <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="D40" s="104">
+      <c r="D40" s="2">
         <v>2023</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="4">
         <v>5.03</v>
       </c>
-      <c r="F40" s="68">
+      <c r="F40" s="4">
         <v>7.5449999999999999</v>
       </c>
-      <c r="G40" s="68">
+      <c r="G40" s="4">
         <v>17.2</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="4">
         <v>22.796554009277664</v>
       </c>
-      <c r="I40" s="68">
+      <c r="I40" s="4">
         <v>13.2</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="4">
         <v>3.0091451292246512</v>
       </c>
-      <c r="K40" s="69">
+      <c r="K40" s="5">
         <v>65</v>
       </c>
-      <c r="L40" s="69">
+      <c r="L40" s="5">
         <v>132</v>
       </c>
-      <c r="M40" s="69">
+      <c r="M40" s="5">
         <v>888</v>
       </c>
-      <c r="N40" s="69">
+      <c r="N40" s="5">
         <v>81</v>
       </c>
-      <c r="O40" s="69">
+      <c r="O40" s="5">
         <v>-6</v>
       </c>
-      <c r="P40" s="69">
+      <c r="P40" s="5">
         <v>911</v>
       </c>
-      <c r="Q40" s="69">
+      <c r="Q40" s="5">
         <v>690</v>
       </c>
-      <c r="R40" s="69">
+      <c r="R40" s="5">
         <v>594</v>
       </c>
-      <c r="S40" s="70">
+      <c r="S40" s="6">
         <v>2.4</v>
       </c>
-      <c r="T40" s="69">
+      <c r="T40" s="5">
         <v>151</v>
       </c>
-      <c r="U40" s="69">
+      <c r="U40" s="5">
         <v>276</v>
       </c>
-      <c r="V40" s="69">
+      <c r="V40" s="5">
         <v>91</v>
       </c>
-      <c r="W40" s="70">
+      <c r="W40" s="6">
         <v>75.900000000000006</v>
       </c>
-      <c r="X40" s="69">
+      <c r="X40" s="5">
         <v>111</v>
       </c>
-      <c r="Y40" s="69">
+      <c r="Y40" s="5">
         <v>35</v>
       </c>
-      <c r="Z40" s="70">
+      <c r="Z40" s="6">
         <v>10.9</v>
       </c>
-      <c r="AA40" s="69">
+      <c r="AA40" s="5">
         <v>540</v>
       </c>
-      <c r="AB40" s="69">
+      <c r="AB40" s="5">
         <v>303</v>
       </c>
-      <c r="AC40" s="69">
+      <c r="AC40" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="67">
+      <c r="B41" s="2">
         <v>14</v>
       </c>
-      <c r="C41" s="104">
+      <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="D41" s="104">
+      <c r="D41" s="2">
         <v>2023</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="4">
         <v>5.22</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="4">
         <v>7.83</v>
       </c>
-      <c r="G41" s="68">
+      <c r="G41" s="4">
         <v>12.6</v>
       </c>
-      <c r="H41" s="68">
+      <c r="H41" s="4">
         <v>16.091954022988507</v>
       </c>
-      <c r="I41" s="68">
+      <c r="I41" s="4">
         <v>17.2</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="4">
         <v>2.7678160919540233</v>
       </c>
-      <c r="K41" s="71">
+      <c r="K41" s="7">
         <v>59</v>
       </c>
-      <c r="L41" s="71">
+      <c r="L41" s="7">
         <v>172</v>
       </c>
-      <c r="M41" s="71">
+      <c r="M41" s="7">
         <v>860</v>
       </c>
-      <c r="N41" s="71">
+      <c r="N41" s="7">
         <v>72</v>
       </c>
-      <c r="O41" s="71">
+      <c r="O41" s="7">
         <v>-18</v>
       </c>
-      <c r="P41" s="71">
+      <c r="P41" s="7">
         <v>879</v>
       </c>
-      <c r="Q41" s="71">
+      <c r="Q41" s="7">
         <v>671</v>
       </c>
-      <c r="R41" s="71">
+      <c r="R41" s="7">
         <v>582</v>
       </c>
-      <c r="S41" s="72">
+      <c r="S41" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T41" s="71">
+      <c r="T41" s="7">
         <v>131</v>
       </c>
-      <c r="U41" s="71">
+      <c r="U41" s="7">
         <v>263</v>
       </c>
-      <c r="V41" s="71">
+      <c r="V41" s="7">
         <v>94</v>
       </c>
-      <c r="W41" s="72">
+      <c r="W41" s="8">
         <v>74.099999999999994</v>
       </c>
-      <c r="X41" s="71">
+      <c r="X41" s="7">
         <v>130</v>
       </c>
-      <c r="Y41" s="71">
+      <c r="Y41" s="7">
         <v>34</v>
       </c>
-      <c r="Z41" s="72">
+      <c r="Z41" s="8">
         <v>12.1</v>
       </c>
-      <c r="AA41" s="71">
+      <c r="AA41" s="7">
         <v>530</v>
       </c>
-      <c r="AB41" s="71">
+      <c r="AB41" s="7">
         <v>288</v>
       </c>
-      <c r="AC41" s="71">
+      <c r="AC41" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="73">
+      <c r="B42" s="2">
         <v>3</v>
       </c>
-      <c r="C42" s="104">
+      <c r="C42" s="2">
         <v>3</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="2">
         <v>2023</v>
       </c>
-      <c r="E42" s="74">
+      <c r="E42" s="4">
         <v>4.93</v>
       </c>
-      <c r="F42" s="74">
+      <c r="F42" s="4">
         <v>7.3949999999999996</v>
       </c>
-      <c r="G42" s="74">
+      <c r="G42" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="H42" s="74">
+      <c r="H42" s="4">
         <v>26.23394185260311</v>
       </c>
-      <c r="I42" s="74">
+      <c r="I42" s="4">
         <v>14.5</v>
       </c>
-      <c r="J42" s="74">
+      <c r="J42" s="4">
         <v>3.8039215686274508</v>
       </c>
-      <c r="K42" s="75">
+      <c r="K42" s="5">
         <v>59</v>
       </c>
-      <c r="L42" s="75">
+      <c r="L42" s="5">
         <v>145</v>
       </c>
-      <c r="M42" s="75">
+      <c r="M42" s="5">
         <v>822</v>
       </c>
-      <c r="N42" s="75">
+      <c r="N42" s="5">
         <v>74</v>
       </c>
-      <c r="O42" s="75">
+      <c r="O42" s="5">
         <v>1</v>
       </c>
-      <c r="P42" s="75">
+      <c r="P42" s="5">
         <v>828</v>
       </c>
-      <c r="Q42" s="75">
+      <c r="Q42" s="5">
         <v>646</v>
       </c>
-      <c r="R42" s="75">
+      <c r="R42" s="5">
         <v>549</v>
       </c>
-      <c r="S42" s="76">
+      <c r="S42" s="6">
         <v>2.5</v>
       </c>
-      <c r="T42" s="75">
+      <c r="T42" s="5">
         <v>151</v>
       </c>
-      <c r="U42" s="75">
+      <c r="U42" s="5">
         <v>293</v>
       </c>
-      <c r="V42" s="75">
+      <c r="V42" s="5">
         <v>107</v>
       </c>
-      <c r="W42" s="76">
+      <c r="W42" s="6">
         <v>72.3</v>
       </c>
-      <c r="X42" s="75">
+      <c r="X42" s="5">
         <v>74</v>
       </c>
-      <c r="Y42" s="75">
+      <c r="Y42" s="5">
         <v>35</v>
       </c>
-      <c r="Z42" s="76">
+      <c r="Z42" s="6">
         <v>11.9</v>
       </c>
-      <c r="AA42" s="75">
+      <c r="AA42" s="5">
         <v>556</v>
       </c>
-      <c r="AB42" s="75">
+      <c r="AB42" s="5">
         <v>318</v>
       </c>
-      <c r="AC42" s="75">
+      <c r="AC42" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="73">
+      <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="104">
+      <c r="C43" s="2">
         <v>3</v>
       </c>
-      <c r="D43" s="104">
+      <c r="D43" s="2">
         <v>2023</v>
       </c>
-      <c r="E43" s="74">
+      <c r="E43" s="4">
         <v>5.09</v>
       </c>
-      <c r="F43" s="74">
+      <c r="F43" s="4">
         <v>7.6349999999999998</v>
       </c>
-      <c r="G43" s="74">
+      <c r="G43" s="4">
         <v>17</v>
       </c>
-      <c r="H43" s="74">
+      <c r="H43" s="4">
         <v>22.265880812049769</v>
       </c>
-      <c r="I43" s="74">
+      <c r="I43" s="4">
         <v>15.1</v>
       </c>
-      <c r="J43" s="74">
+      <c r="J43" s="4">
         <v>3.3621480026195147</v>
       </c>
-      <c r="K43" s="75">
+      <c r="K43" s="5">
         <v>58</v>
       </c>
-      <c r="L43" s="75">
+      <c r="L43" s="5">
         <v>151</v>
       </c>
-      <c r="M43" s="75">
+      <c r="M43" s="5">
         <v>859</v>
       </c>
-      <c r="N43" s="75">
+      <c r="N43" s="5">
         <v>75</v>
       </c>
-      <c r="O43" s="75">
+      <c r="O43" s="5">
         <v>-11</v>
       </c>
-      <c r="P43" s="75">
+      <c r="P43" s="5">
         <v>876</v>
       </c>
-      <c r="Q43" s="75">
+      <c r="Q43" s="5">
         <v>670</v>
       </c>
-      <c r="R43" s="75">
+      <c r="R43" s="5">
         <v>578</v>
       </c>
-      <c r="S43" s="76">
+      <c r="S43" s="6">
         <v>2.4</v>
       </c>
-      <c r="T43" s="75">
+      <c r="T43" s="5">
         <v>140</v>
       </c>
-      <c r="U43" s="75">
+      <c r="U43" s="5">
         <v>276</v>
       </c>
-      <c r="V43" s="75">
+      <c r="V43" s="5">
         <v>94</v>
       </c>
-      <c r="W43" s="76">
+      <c r="W43" s="6">
         <v>74</v>
       </c>
-      <c r="X43" s="75">
+      <c r="X43" s="5">
         <v>91</v>
       </c>
-      <c r="Y43" s="75">
+      <c r="Y43" s="5">
         <v>34</v>
       </c>
-      <c r="Z43" s="76">
+      <c r="Z43" s="6">
         <v>11.9</v>
       </c>
-      <c r="AA43" s="75">
+      <c r="AA43" s="5">
         <v>561</v>
       </c>
-      <c r="AB43" s="75">
+      <c r="AB43" s="5">
         <v>306</v>
       </c>
-      <c r="AC43" s="75">
+      <c r="AC43" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="2">
         <v>11</v>
       </c>
-      <c r="C44" s="104">
+      <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="D44" s="104">
+      <c r="D44" s="2">
         <v>2023</v>
       </c>
-      <c r="E44" s="74">
+      <c r="E44" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F44" s="74">
+      <c r="F44" s="4">
         <v>7.6499999999999995</v>
       </c>
-      <c r="G44" s="74">
+      <c r="G44" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="H44" s="74">
+      <c r="H44" s="4">
         <v>21.437908496732025</v>
       </c>
-      <c r="I44" s="74">
+      <c r="I44" s="4">
         <v>16</v>
       </c>
-      <c r="J44" s="74">
+      <c r="J44" s="4">
         <v>3.430065359477124</v>
       </c>
-      <c r="K44" s="75">
+      <c r="K44" s="5">
         <v>62</v>
       </c>
-      <c r="L44" s="75">
+      <c r="L44" s="5">
         <v>160</v>
       </c>
-      <c r="M44" s="75">
+      <c r="M44" s="5">
         <v>844</v>
       </c>
-      <c r="N44" s="75">
+      <c r="N44" s="5">
         <v>72</v>
       </c>
-      <c r="O44" s="75">
+      <c r="O44" s="5">
         <v>-15</v>
       </c>
-      <c r="P44" s="75">
+      <c r="P44" s="5">
         <v>857</v>
       </c>
-      <c r="Q44" s="75">
+      <c r="Q44" s="5">
         <v>663</v>
       </c>
-      <c r="R44" s="75">
+      <c r="R44" s="5">
         <v>574</v>
       </c>
-      <c r="S44" s="76">
+      <c r="S44" s="6">
         <v>2.4</v>
       </c>
-      <c r="T44" s="75">
+      <c r="T44" s="5">
         <v>134</v>
       </c>
-      <c r="U44" s="75">
+      <c r="U44" s="5">
         <v>280</v>
       </c>
-      <c r="V44" s="75">
+      <c r="V44" s="5">
         <v>95</v>
       </c>
-      <c r="W44" s="76">
+      <c r="W44" s="6">
         <v>73.3</v>
       </c>
-      <c r="X44" s="75">
+      <c r="X44" s="5">
         <v>121</v>
       </c>
-      <c r="Y44" s="75">
+      <c r="Y44" s="5">
         <v>33</v>
       </c>
-      <c r="Z44" s="76">
+      <c r="Z44" s="6">
         <v>12.8</v>
       </c>
-      <c r="AA44" s="75">
+      <c r="AA44" s="5">
         <v>549</v>
       </c>
-      <c r="AB44" s="75">
+      <c r="AB44" s="5">
         <v>303</v>
       </c>
-      <c r="AC44" s="75">
+      <c r="AC44" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="73">
+      <c r="B45" s="2">
         <v>12</v>
       </c>
-      <c r="C45" s="104">
+      <c r="C45" s="2">
         <v>3</v>
       </c>
-      <c r="D45" s="104">
+      <c r="D45" s="2">
         <v>2023</v>
       </c>
-      <c r="E45" s="74">
+      <c r="E45" s="4">
         <v>4.95</v>
       </c>
-      <c r="F45" s="74">
+      <c r="F45" s="4">
         <v>7.4250000000000007</v>
       </c>
-      <c r="G45" s="74">
+      <c r="G45" s="4">
         <v>14.6</v>
       </c>
-      <c r="H45" s="74">
+      <c r="H45" s="4">
         <v>19.663299663299661</v>
       </c>
-      <c r="I45" s="74">
+      <c r="I45" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="J45" s="74">
+      <c r="J45" s="4">
         <v>3.165791245791246</v>
       </c>
-      <c r="K45" s="77">
+      <c r="K45" s="7">
         <v>58</v>
       </c>
-      <c r="L45" s="77">
+      <c r="L45" s="7">
         <v>161</v>
       </c>
-      <c r="M45" s="77">
+      <c r="M45" s="7">
         <v>856</v>
       </c>
-      <c r="N45" s="77">
+      <c r="N45" s="7">
         <v>72</v>
       </c>
-      <c r="O45" s="77">
+      <c r="O45" s="7">
         <v>-18</v>
       </c>
-      <c r="P45" s="77">
+      <c r="P45" s="7">
         <v>876</v>
       </c>
-      <c r="Q45" s="77">
+      <c r="Q45" s="7">
         <v>669</v>
       </c>
-      <c r="R45" s="77">
+      <c r="R45" s="7">
         <v>581</v>
       </c>
-      <c r="S45" s="78">
+      <c r="S45" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T45" s="77">
+      <c r="T45" s="7">
         <v>131</v>
       </c>
-      <c r="U45" s="77">
+      <c r="U45" s="7">
         <v>268</v>
       </c>
-      <c r="V45" s="77">
+      <c r="V45" s="7">
         <v>104</v>
       </c>
-      <c r="W45" s="78">
+      <c r="W45" s="8">
         <v>74.7</v>
       </c>
-      <c r="X45" s="77">
+      <c r="X45" s="7">
         <v>130</v>
       </c>
-      <c r="Y45" s="77">
+      <c r="Y45" s="7">
         <v>33</v>
       </c>
-      <c r="Z45" s="78">
+      <c r="Z45" s="8">
         <v>9.9</v>
       </c>
-      <c r="AA45" s="77">
+      <c r="AA45" s="7">
         <v>525</v>
       </c>
-      <c r="AB45" s="77">
+      <c r="AB45" s="7">
         <v>292</v>
       </c>
-      <c r="AC45" s="77">
+      <c r="AC45" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="79">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="104">
+      <c r="C46" s="2">
         <v>3</v>
       </c>
-      <c r="D46" s="104">
+      <c r="D46" s="2">
         <v>2023</v>
       </c>
-      <c r="E46" s="80">
+      <c r="E46" s="4">
         <v>5.03</v>
       </c>
-      <c r="F46" s="80">
+      <c r="F46" s="4">
         <v>7.5449999999999999</v>
       </c>
-      <c r="G46" s="80">
+      <c r="G46" s="4">
         <v>13.8</v>
       </c>
-      <c r="H46" s="80">
+      <c r="H46" s="4">
         <v>18.290258449304176</v>
       </c>
-      <c r="I46" s="80">
+      <c r="I46" s="4">
         <v>13.6</v>
       </c>
-      <c r="J46" s="80">
+      <c r="J46" s="4">
         <v>2.4874751491053679</v>
       </c>
-      <c r="K46" s="81">
+      <c r="K46" s="5">
         <v>54</v>
       </c>
-      <c r="L46" s="81">
+      <c r="L46" s="5">
         <v>136</v>
       </c>
-      <c r="M46" s="81">
+      <c r="M46" s="5">
         <v>858</v>
       </c>
-      <c r="N46" s="81">
+      <c r="N46" s="5">
         <v>72</v>
       </c>
-      <c r="O46" s="81">
+      <c r="O46" s="5">
         <v>-18</v>
       </c>
-      <c r="P46" s="81">
+      <c r="P46" s="5">
         <v>875</v>
       </c>
-      <c r="Q46" s="81">
+      <c r="Q46" s="5">
         <v>670</v>
       </c>
-      <c r="R46" s="81">
+      <c r="R46" s="5">
         <v>579</v>
       </c>
-      <c r="S46" s="82">
+      <c r="S46" s="6">
         <v>2.4</v>
       </c>
-      <c r="T46" s="81">
+      <c r="T46" s="5">
         <v>130</v>
       </c>
-      <c r="U46" s="81">
+      <c r="U46" s="5">
         <v>276</v>
       </c>
-      <c r="V46" s="81">
+      <c r="V46" s="5">
         <v>94</v>
       </c>
-      <c r="W46" s="82">
+      <c r="W46" s="6">
         <v>73.900000000000006</v>
       </c>
-      <c r="X46" s="81">
+      <c r="X46" s="5">
         <v>114</v>
       </c>
-      <c r="Y46" s="81">
+      <c r="Y46" s="5">
         <v>35</v>
       </c>
-      <c r="Z46" s="82">
+      <c r="Z46" s="6">
         <v>13</v>
       </c>
-      <c r="AA46" s="81">
+      <c r="AA46" s="5">
         <v>556</v>
       </c>
-      <c r="AB46" s="81">
+      <c r="AB46" s="5">
         <v>301</v>
       </c>
-      <c r="AC46" s="81">
+      <c r="AC46" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="79">
+      <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="104">
+      <c r="C47" s="2">
         <v>3</v>
       </c>
-      <c r="D47" s="104">
+      <c r="D47" s="2">
         <v>2023</v>
       </c>
-      <c r="E47" s="80">
+      <c r="E47" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F47" s="80">
+      <c r="F47" s="4">
         <v>7.4700000000000006</v>
       </c>
-      <c r="G47" s="80">
+      <c r="G47" s="4">
         <v>13.2</v>
       </c>
-      <c r="H47" s="80">
+      <c r="H47" s="4">
         <v>17.670682730923694</v>
       </c>
-      <c r="I47" s="80">
+      <c r="I47" s="4">
         <v>16.3</v>
       </c>
-      <c r="J47" s="80">
+      <c r="J47" s="4">
         <v>2.8803212851405622</v>
       </c>
-      <c r="K47" s="81">
+      <c r="K47" s="5">
         <v>57</v>
       </c>
-      <c r="L47" s="81">
+      <c r="L47" s="5">
         <v>163</v>
       </c>
-      <c r="M47" s="81">
+      <c r="M47" s="5">
         <v>854</v>
       </c>
-      <c r="N47" s="81">
+      <c r="N47" s="5">
         <v>75</v>
       </c>
-      <c r="O47" s="81">
+      <c r="O47" s="5">
         <v>-8</v>
       </c>
-      <c r="P47" s="81">
+      <c r="P47" s="5">
         <v>871</v>
       </c>
-      <c r="Q47" s="81">
+      <c r="Q47" s="5">
         <v>666</v>
       </c>
-      <c r="R47" s="81">
+      <c r="R47" s="5">
         <v>573</v>
       </c>
-      <c r="S47" s="82">
+      <c r="S47" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T47" s="81">
+      <c r="T47" s="5">
         <v>143</v>
       </c>
-      <c r="U47" s="81">
+      <c r="U47" s="5">
         <v>261</v>
       </c>
-      <c r="V47" s="81">
+      <c r="V47" s="5">
         <v>98</v>
       </c>
-      <c r="W47" s="82">
+      <c r="W47" s="6">
         <v>73.8</v>
       </c>
-      <c r="X47" s="81">
+      <c r="X47" s="5">
         <v>103</v>
       </c>
-      <c r="Y47" s="81">
+      <c r="Y47" s="5">
         <v>34</v>
       </c>
-      <c r="Z47" s="82">
+      <c r="Z47" s="6">
         <v>13.5</v>
       </c>
-      <c r="AA47" s="81">
+      <c r="AA47" s="5">
         <v>541</v>
       </c>
-      <c r="AB47" s="81">
+      <c r="AB47" s="5">
         <v>294</v>
       </c>
-      <c r="AC47" s="81">
+      <c r="AC47" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="79">
+      <c r="B48" s="2">
         <v>9</v>
       </c>
-      <c r="C48" s="104">
+      <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="104">
+      <c r="D48" s="2">
         <v>2023</v>
       </c>
-      <c r="E48" s="80">
+      <c r="E48" s="4">
         <v>5.1100000000000003</v>
       </c>
-      <c r="F48" s="80">
+      <c r="F48" s="4">
         <v>7.6650000000000009</v>
       </c>
-      <c r="G48" s="80">
+      <c r="G48" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="H48" s="80">
+      <c r="H48" s="4">
         <v>13.307240704500975</v>
       </c>
-      <c r="I48" s="80">
+      <c r="I48" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="J48" s="80">
+      <c r="J48" s="4">
         <v>2.4485322896281794</v>
       </c>
-      <c r="K48" s="81">
+      <c r="K48" s="5">
         <v>54</v>
       </c>
-      <c r="L48" s="81">
+      <c r="L48" s="5">
         <v>184</v>
       </c>
-      <c r="M48" s="81">
+      <c r="M48" s="5">
         <v>875</v>
       </c>
-      <c r="N48" s="81">
+      <c r="N48" s="5">
         <v>71</v>
       </c>
-      <c r="O48" s="81">
+      <c r="O48" s="5">
         <v>-29</v>
       </c>
-      <c r="P48" s="81">
+      <c r="P48" s="5">
         <v>901</v>
       </c>
-      <c r="Q48" s="81">
+      <c r="Q48" s="5">
         <v>688</v>
       </c>
-      <c r="R48" s="81">
+      <c r="R48" s="5">
         <v>607</v>
       </c>
-      <c r="S48" s="82">
+      <c r="S48" s="6">
         <v>2.1</v>
       </c>
-      <c r="T48" s="81">
+      <c r="T48" s="5">
         <v>119</v>
       </c>
-      <c r="U48" s="81">
+      <c r="U48" s="5">
         <v>248</v>
       </c>
-      <c r="V48" s="81">
+      <c r="V48" s="5">
         <v>88</v>
       </c>
-      <c r="W48" s="82">
+      <c r="W48" s="6">
         <v>75.400000000000006</v>
       </c>
-      <c r="X48" s="81">
+      <c r="X48" s="5">
         <v>178</v>
       </c>
-      <c r="Y48" s="81">
+      <c r="Y48" s="5">
         <v>29</v>
       </c>
-      <c r="Z48" s="82">
+      <c r="Z48" s="6">
         <v>6.8</v>
       </c>
-      <c r="AA48" s="81">
+      <c r="AA48" s="5">
         <v>496</v>
       </c>
-      <c r="AB48" s="81">
+      <c r="AB48" s="5">
         <v>266</v>
       </c>
-      <c r="AC48" s="81">
+      <c r="AC48" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="79">
+      <c r="B49" s="2">
         <v>10</v>
       </c>
-      <c r="C49" s="104">
+      <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49" s="104">
+      <c r="D49" s="2">
         <v>2023</v>
       </c>
-      <c r="E49" s="80">
+      <c r="E49" s="4">
         <v>5.3</v>
       </c>
-      <c r="F49" s="80">
+      <c r="F49" s="4">
         <v>7.9499999999999993</v>
       </c>
-      <c r="G49" s="80">
+      <c r="G49" s="4">
         <v>13.2</v>
       </c>
-      <c r="H49" s="80">
+      <c r="H49" s="4">
         <v>16.60377358490566</v>
       </c>
-      <c r="I49" s="80">
+      <c r="I49" s="4">
         <v>14.5</v>
       </c>
-      <c r="J49" s="80">
+      <c r="J49" s="4">
         <v>2.4075471698113207</v>
       </c>
-      <c r="K49" s="83">
+      <c r="K49" s="7">
         <v>59</v>
       </c>
-      <c r="L49" s="83">
+      <c r="L49" s="7">
         <v>145</v>
       </c>
-      <c r="M49" s="83">
+      <c r="M49" s="7">
         <v>868</v>
       </c>
-      <c r="N49" s="83">
+      <c r="N49" s="7">
         <v>70</v>
       </c>
-      <c r="O49" s="83">
+      <c r="O49" s="7">
         <v>-25</v>
       </c>
-      <c r="P49" s="83">
+      <c r="P49" s="7">
         <v>890</v>
       </c>
-      <c r="Q49" s="83">
+      <c r="Q49" s="7">
         <v>675</v>
       </c>
-      <c r="R49" s="83">
+      <c r="R49" s="7">
         <v>590</v>
       </c>
-      <c r="S49" s="84">
+      <c r="S49" s="8">
         <v>2</v>
       </c>
-      <c r="T49" s="83">
+      <c r="T49" s="7">
         <v>122</v>
       </c>
-      <c r="U49" s="83">
+      <c r="U49" s="7">
         <v>244</v>
       </c>
-      <c r="V49" s="83">
+      <c r="V49" s="7">
         <v>91</v>
       </c>
-      <c r="W49" s="84">
+      <c r="W49" s="8">
         <v>74.3</v>
       </c>
-      <c r="X49" s="83">
+      <c r="X49" s="7">
         <v>139</v>
       </c>
-      <c r="Y49" s="83">
+      <c r="Y49" s="7">
         <v>33</v>
       </c>
-      <c r="Z49" s="84">
+      <c r="Z49" s="8">
         <v>12.2</v>
       </c>
-      <c r="AA49" s="83">
+      <c r="AA49" s="7">
         <v>503</v>
       </c>
-      <c r="AB49" s="83">
+      <c r="AB49" s="7">
         <v>283</v>
       </c>
-      <c r="AC49" s="83">
+      <c r="AC49" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="85">
+      <c r="B50" s="2">
         <v>7</v>
       </c>
-      <c r="C50" s="104">
+      <c r="C50" s="2">
         <v>4</v>
       </c>
-      <c r="D50" s="104">
+      <c r="D50" s="2">
         <v>2023</v>
       </c>
-      <c r="E50" s="86">
+      <c r="E50" s="4">
         <v>5</v>
       </c>
-      <c r="F50" s="86">
+      <c r="F50" s="4">
         <v>7.5</v>
       </c>
-      <c r="G50" s="86">
+      <c r="G50" s="4">
         <v>11.4</v>
       </c>
-      <c r="H50" s="86">
+      <c r="H50" s="4">
         <v>15.2</v>
       </c>
-      <c r="I50" s="86">
+      <c r="I50" s="4">
         <v>14.3</v>
       </c>
-      <c r="J50" s="86">
+      <c r="J50" s="4">
         <v>2.1736</v>
       </c>
-      <c r="K50" s="87">
+      <c r="K50" s="5">
         <v>39</v>
       </c>
-      <c r="L50" s="87">
+      <c r="L50" s="5">
         <v>143</v>
       </c>
-      <c r="M50" s="87">
+      <c r="M50" s="5">
         <v>832</v>
       </c>
-      <c r="N50" s="87">
+      <c r="N50" s="5">
         <v>80</v>
       </c>
-      <c r="O50" s="87">
+      <c r="O50" s="5">
         <v>18</v>
       </c>
-      <c r="P50" s="87">
+      <c r="P50" s="5">
         <v>837</v>
       </c>
-      <c r="Q50" s="87">
+      <c r="Q50" s="5">
         <v>646</v>
       </c>
-      <c r="R50" s="87">
+      <c r="R50" s="5">
         <v>537</v>
       </c>
-      <c r="S50" s="88">
+      <c r="S50" s="6">
         <v>2.4</v>
       </c>
-      <c r="T50" s="87">
+      <c r="T50" s="5">
         <v>177</v>
       </c>
-      <c r="U50" s="87">
+      <c r="U50" s="5">
         <v>278</v>
       </c>
-      <c r="V50" s="87">
+      <c r="V50" s="5">
         <v>104</v>
       </c>
-      <c r="W50" s="88">
+      <c r="W50" s="6">
         <v>72.099999999999994</v>
       </c>
-      <c r="X50" s="87">
+      <c r="X50" s="5">
         <v>53</v>
       </c>
-      <c r="Y50" s="87">
+      <c r="Y50" s="5">
         <v>39</v>
       </c>
-      <c r="Z50" s="88">
+      <c r="Z50" s="6">
         <v>10.8</v>
       </c>
-      <c r="AA50" s="87">
+      <c r="AA50" s="5">
         <v>574</v>
       </c>
-      <c r="AB50" s="87">
+      <c r="AB50" s="5">
         <v>308</v>
       </c>
-      <c r="AC50" s="87">
+      <c r="AC50" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="85">
+      <c r="B51" s="2">
         <v>8</v>
       </c>
-      <c r="C51" s="104">
+      <c r="C51" s="2">
         <v>4</v>
       </c>
-      <c r="D51" s="104">
+      <c r="D51" s="2">
         <v>2023</v>
       </c>
-      <c r="E51" s="86">
+      <c r="E51" s="4">
         <v>5.32</v>
       </c>
-      <c r="F51" s="86">
+      <c r="F51" s="4">
         <v>7.98</v>
       </c>
-      <c r="G51" s="86">
+      <c r="G51" s="4">
         <v>14.2</v>
       </c>
-      <c r="H51" s="86">
+      <c r="H51" s="4">
         <v>17.794486215538846</v>
       </c>
-      <c r="I51" s="86">
+      <c r="I51" s="4">
         <v>12.9</v>
       </c>
-      <c r="J51" s="86">
+      <c r="J51" s="4">
         <v>2.2954887218045115</v>
       </c>
-      <c r="K51" s="87">
+      <c r="K51" s="5">
         <v>37</v>
       </c>
-      <c r="L51" s="87">
+      <c r="L51" s="5">
         <v>129</v>
       </c>
-      <c r="M51" s="87">
+      <c r="M51" s="5">
         <v>828</v>
       </c>
-      <c r="N51" s="87">
+      <c r="N51" s="5">
         <v>84</v>
       </c>
-      <c r="O51" s="87">
+      <c r="O51" s="5">
         <v>34</v>
       </c>
-      <c r="P51" s="87">
+      <c r="P51" s="5">
         <v>832</v>
       </c>
-      <c r="Q51" s="87">
+      <c r="Q51" s="5">
         <v>645</v>
       </c>
-      <c r="R51" s="87">
+      <c r="R51" s="5">
         <v>532</v>
       </c>
-      <c r="S51" s="88">
+      <c r="S51" s="6">
         <v>2.4</v>
       </c>
-      <c r="T51" s="87">
+      <c r="T51" s="5">
         <v>197</v>
       </c>
-      <c r="U51" s="87">
+      <c r="U51" s="5">
         <v>283</v>
       </c>
-      <c r="V51" s="87">
+      <c r="V51" s="5">
         <v>111</v>
       </c>
-      <c r="W51" s="88">
+      <c r="W51" s="6">
         <v>72.5</v>
       </c>
-      <c r="X51" s="87">
+      <c r="X51" s="5">
         <v>43</v>
       </c>
-      <c r="Y51" s="87">
+      <c r="Y51" s="5">
         <v>38</v>
       </c>
-      <c r="Z51" s="88">
+      <c r="Z51" s="6">
         <v>14.7</v>
       </c>
-      <c r="AA51" s="87">
+      <c r="AA51" s="5">
         <v>569</v>
       </c>
-      <c r="AB51" s="87">
+      <c r="AB51" s="5">
         <v>307</v>
       </c>
-      <c r="AC51" s="87">
+      <c r="AC51" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="85">
+      <c r="B52" s="2">
         <v>15</v>
       </c>
-      <c r="C52" s="104">
+      <c r="C52" s="2">
         <v>4</v>
       </c>
-      <c r="D52" s="104">
+      <c r="D52" s="2">
         <v>2023</v>
       </c>
-      <c r="E52" s="86">
+      <c r="E52" s="4">
         <v>5.5</v>
       </c>
-      <c r="F52" s="86">
+      <c r="F52" s="4">
         <v>8.25</v>
       </c>
-      <c r="G52" s="86">
+      <c r="G52" s="4">
         <v>11.6</v>
       </c>
-      <c r="H52" s="86">
+      <c r="H52" s="4">
         <v>14.060606060606061</v>
       </c>
-      <c r="I52" s="86">
+      <c r="I52" s="4">
         <v>13.3</v>
       </c>
-      <c r="J52" s="86">
+      <c r="J52" s="4">
         <v>1.8700606060606062</v>
       </c>
-      <c r="K52" s="87">
+      <c r="K52" s="5">
         <v>46</v>
       </c>
-      <c r="L52" s="87">
+      <c r="L52" s="5">
         <v>133</v>
       </c>
-      <c r="M52" s="87">
+      <c r="M52" s="5">
         <v>858</v>
       </c>
-      <c r="N52" s="87">
+      <c r="N52" s="5">
         <v>82</v>
       </c>
-      <c r="O52" s="87">
+      <c r="O52" s="5">
         <v>13</v>
       </c>
-      <c r="P52" s="87">
+      <c r="P52" s="5">
         <v>871</v>
       </c>
-      <c r="Q52" s="87">
+      <c r="Q52" s="5">
         <v>663</v>
       </c>
-      <c r="R52" s="87">
+      <c r="R52" s="5">
         <v>554</v>
       </c>
-      <c r="S52" s="88">
+      <c r="S52" s="6">
         <v>2.4</v>
       </c>
-      <c r="T52" s="87">
+      <c r="T52" s="5">
         <v>173</v>
       </c>
-      <c r="U52" s="87">
+      <c r="U52" s="5">
         <v>283</v>
       </c>
-      <c r="V52" s="87">
+      <c r="V52" s="5">
         <v>108</v>
       </c>
-      <c r="W52" s="88">
+      <c r="W52" s="6">
         <v>74.3</v>
       </c>
-      <c r="X52" s="87">
+      <c r="X52" s="5">
         <v>58</v>
       </c>
-      <c r="Y52" s="87">
+      <c r="Y52" s="5">
         <v>39</v>
       </c>
-      <c r="Z52" s="88">
+      <c r="Z52" s="6">
         <v>11.6</v>
       </c>
-      <c r="AA52" s="87">
+      <c r="AA52" s="5">
         <v>576</v>
       </c>
-      <c r="AB52" s="87">
+      <c r="AB52" s="5">
         <v>311</v>
       </c>
-      <c r="AC52" s="87">
+      <c r="AC52" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="85">
+      <c r="B53" s="2">
         <v>16</v>
       </c>
-      <c r="C53" s="104">
+      <c r="C53" s="2">
         <v>4</v>
       </c>
-      <c r="D53" s="104">
+      <c r="D53" s="2">
         <v>2023</v>
       </c>
-      <c r="E53" s="86">
+      <c r="E53" s="4">
         <v>5.29</v>
       </c>
-      <c r="F53" s="86">
+      <c r="F53" s="4">
         <v>7.9350000000000005</v>
       </c>
-      <c r="G53" s="86">
+      <c r="G53" s="4">
         <v>15.2</v>
       </c>
-      <c r="H53" s="86">
+      <c r="H53" s="4">
         <v>19.155639571518584</v>
       </c>
-      <c r="I53" s="86">
+      <c r="I53" s="4">
         <v>14.7</v>
       </c>
-      <c r="J53" s="86">
+      <c r="J53" s="4">
         <v>2.815879017013232</v>
       </c>
-      <c r="K53" s="89">
+      <c r="K53" s="7">
         <v>45</v>
       </c>
-      <c r="L53" s="89">
+      <c r="L53" s="7">
         <v>147</v>
       </c>
-      <c r="M53" s="89">
+      <c r="M53" s="7">
         <v>883</v>
       </c>
-      <c r="N53" s="89">
+      <c r="N53" s="7">
         <v>87</v>
       </c>
-      <c r="O53" s="89">
+      <c r="O53" s="7">
         <v>20</v>
       </c>
-      <c r="P53" s="89">
+      <c r="P53" s="7">
         <v>902</v>
       </c>
-      <c r="Q53" s="89">
+      <c r="Q53" s="7">
         <v>676</v>
       </c>
-      <c r="R53" s="89">
+      <c r="R53" s="7">
         <v>563</v>
       </c>
-      <c r="S53" s="90">
+      <c r="S53" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T53" s="89">
+      <c r="T53" s="7">
         <v>184</v>
       </c>
-      <c r="U53" s="89">
+      <c r="U53" s="7">
         <v>271</v>
       </c>
-      <c r="V53" s="89">
+      <c r="V53" s="7">
         <v>106</v>
       </c>
-      <c r="W53" s="90">
+      <c r="W53" s="8">
         <v>75.599999999999994</v>
       </c>
-      <c r="X53" s="89">
+      <c r="X53" s="7">
         <v>57</v>
       </c>
-      <c r="Y53" s="89">
+      <c r="Y53" s="7">
         <v>41</v>
       </c>
-      <c r="Z53" s="90">
+      <c r="Z53" s="8">
         <v>13.2</v>
       </c>
-      <c r="AA53" s="89">
+      <c r="AA53" s="7">
         <v>564</v>
       </c>
-      <c r="AB53" s="89">
+      <c r="AB53" s="7">
         <v>306</v>
       </c>
-      <c r="AC53" s="89">
+      <c r="AC53" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="91" t="s">
+      <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="91">
+      <c r="B54" s="2">
         <v>5</v>
       </c>
-      <c r="C54" s="104">
+      <c r="C54" s="2">
         <v>4</v>
       </c>
-      <c r="D54" s="104">
+      <c r="D54" s="2">
         <v>2023</v>
       </c>
-      <c r="E54" s="92">
+      <c r="E54" s="4">
         <v>5.18</v>
       </c>
-      <c r="F54" s="92">
+      <c r="F54" s="4">
         <v>7.77</v>
       </c>
-      <c r="G54" s="92">
+      <c r="G54" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H54" s="92">
+      <c r="H54" s="4">
         <v>12.612612612612615</v>
       </c>
-      <c r="I54" s="92">
+      <c r="I54" s="4">
         <v>13.8</v>
       </c>
-      <c r="J54" s="92">
+      <c r="J54" s="4">
         <v>1.740540540540541</v>
       </c>
-      <c r="K54" s="93">
+      <c r="K54" s="5">
         <v>39</v>
       </c>
-      <c r="L54" s="93">
+      <c r="L54" s="5">
         <v>138</v>
       </c>
-      <c r="M54" s="93">
+      <c r="M54" s="5">
         <v>862</v>
       </c>
-      <c r="N54" s="93">
+      <c r="N54" s="5">
         <v>85</v>
       </c>
-      <c r="O54" s="93">
+      <c r="O54" s="5">
         <v>24</v>
       </c>
-      <c r="P54" s="93">
+      <c r="P54" s="5">
         <v>877</v>
       </c>
-      <c r="Q54" s="93">
+      <c r="Q54" s="5">
         <v>664</v>
       </c>
-      <c r="R54" s="93">
+      <c r="R54" s="5">
         <v>552</v>
       </c>
-      <c r="S54" s="94">
+      <c r="S54" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T54" s="93">
+      <c r="T54" s="5">
         <v>187</v>
       </c>
-      <c r="U54" s="93">
+      <c r="U54" s="5">
         <v>268</v>
       </c>
-      <c r="V54" s="93">
+      <c r="V54" s="5">
         <v>109</v>
       </c>
-      <c r="W54" s="94">
+      <c r="W54" s="6">
         <v>74.5</v>
       </c>
-      <c r="X54" s="93">
+      <c r="X54" s="5">
         <v>49</v>
       </c>
-      <c r="Y54" s="93">
+      <c r="Y54" s="5">
         <v>39</v>
       </c>
-      <c r="Z54" s="94">
+      <c r="Z54" s="6">
         <v>14.9</v>
       </c>
-      <c r="AA54" s="93">
+      <c r="AA54" s="5">
         <v>561</v>
       </c>
-      <c r="AB54" s="93">
+      <c r="AB54" s="5">
         <v>306</v>
       </c>
-      <c r="AC54" s="93">
+      <c r="AC54" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="91">
+      <c r="B55" s="2">
         <v>6</v>
       </c>
-      <c r="C55" s="104">
+      <c r="C55" s="2">
         <v>4</v>
       </c>
-      <c r="D55" s="104">
+      <c r="D55" s="2">
         <v>2023</v>
       </c>
-      <c r="E55" s="92">
+      <c r="E55" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F55" s="92">
+      <c r="F55" s="4">
         <v>7.4700000000000006</v>
       </c>
-      <c r="G55" s="92">
+      <c r="G55" s="4">
         <v>13</v>
       </c>
-      <c r="H55" s="92">
+      <c r="H55" s="4">
         <v>17.402945113788487</v>
       </c>
-      <c r="I55" s="92">
+      <c r="I55" s="4">
         <v>14</v>
       </c>
-      <c r="J55" s="92">
+      <c r="J55" s="4">
         <v>2.4364123159303883</v>
       </c>
-      <c r="K55" s="93">
+      <c r="K55" s="5">
         <v>41</v>
       </c>
-      <c r="L55" s="93">
+      <c r="L55" s="5">
         <v>140</v>
       </c>
-      <c r="M55" s="93">
+      <c r="M55" s="5">
         <v>839</v>
       </c>
-      <c r="N55" s="93">
+      <c r="N55" s="5">
         <v>81</v>
       </c>
-      <c r="O55" s="93">
+      <c r="O55" s="5">
         <v>17</v>
       </c>
-      <c r="P55" s="93">
+      <c r="P55" s="5">
         <v>848</v>
       </c>
-      <c r="Q55" s="93">
+      <c r="Q55" s="5">
         <v>651</v>
       </c>
-      <c r="R55" s="93">
+      <c r="R55" s="5">
         <v>543</v>
       </c>
-      <c r="S55" s="94">
+      <c r="S55" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T55" s="93">
+      <c r="T55" s="5">
         <v>177</v>
       </c>
-      <c r="U55" s="93">
+      <c r="U55" s="5">
         <v>274</v>
       </c>
-      <c r="V55" s="93">
+      <c r="V55" s="5">
         <v>111</v>
       </c>
-      <c r="W55" s="94">
+      <c r="W55" s="6">
         <v>73.2</v>
       </c>
-      <c r="X55" s="93">
+      <c r="X55" s="5">
         <v>46</v>
       </c>
-      <c r="Y55" s="93">
+      <c r="Y55" s="5">
         <v>37</v>
       </c>
-      <c r="Z55" s="94">
+      <c r="Z55" s="6">
         <v>14.7</v>
       </c>
-      <c r="AA55" s="93">
+      <c r="AA55" s="5">
         <v>561</v>
       </c>
-      <c r="AB55" s="93">
+      <c r="AB55" s="5">
         <v>313</v>
       </c>
-      <c r="AC55" s="93">
+      <c r="AC55" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="91" t="s">
+      <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="91">
+      <c r="B56" s="2">
         <v>13</v>
       </c>
-      <c r="C56" s="104">
+      <c r="C56" s="2">
         <v>4</v>
       </c>
-      <c r="D56" s="104">
+      <c r="D56" s="2">
         <v>2023</v>
       </c>
-      <c r="E56" s="92">
+      <c r="E56" s="4">
         <v>5.33</v>
       </c>
-      <c r="F56" s="92">
+      <c r="F56" s="4">
         <v>7.9950000000000001</v>
       </c>
-      <c r="G56" s="92">
+      <c r="G56" s="4">
         <v>13.8</v>
       </c>
-      <c r="H56" s="92">
+      <c r="H56" s="4">
         <v>17.26078799249531</v>
       </c>
-      <c r="I56" s="92">
+      <c r="I56" s="4">
         <v>15.5</v>
       </c>
-      <c r="J56" s="92">
+      <c r="J56" s="4">
         <v>2.6754221388367729</v>
       </c>
-      <c r="K56" s="93">
+      <c r="K56" s="5">
         <v>43</v>
       </c>
-      <c r="L56" s="93">
+      <c r="L56" s="5">
         <v>155</v>
       </c>
-      <c r="M56" s="93">
+      <c r="M56" s="5">
         <v>842</v>
       </c>
-      <c r="N56" s="93">
+      <c r="N56" s="5">
         <v>82</v>
       </c>
-      <c r="O56" s="93">
+      <c r="O56" s="5">
         <v>16</v>
       </c>
-      <c r="P56" s="93">
+      <c r="P56" s="5">
         <v>851</v>
       </c>
-      <c r="Q56" s="93">
+      <c r="Q56" s="5">
         <v>657</v>
       </c>
-      <c r="R56" s="93">
+      <c r="R56" s="5">
         <v>551</v>
       </c>
-      <c r="S56" s="94">
+      <c r="S56" s="6">
         <v>2.4</v>
       </c>
-      <c r="T56" s="93">
+      <c r="T56" s="5">
         <v>177</v>
       </c>
-      <c r="U56" s="93">
+      <c r="U56" s="5">
         <v>283</v>
       </c>
-      <c r="V56" s="93">
+      <c r="V56" s="5">
         <v>105</v>
       </c>
-      <c r="W56" s="94">
+      <c r="W56" s="6">
         <v>73.400000000000006</v>
       </c>
-      <c r="X56" s="93">
+      <c r="X56" s="5">
         <v>61</v>
       </c>
-      <c r="Y56" s="93">
+      <c r="Y56" s="5">
         <v>36</v>
       </c>
-      <c r="Z56" s="94">
+      <c r="Z56" s="6">
         <v>12.8</v>
       </c>
-      <c r="AA56" s="93">
+      <c r="AA56" s="5">
         <v>572</v>
       </c>
-      <c r="AB56" s="93">
+      <c r="AB56" s="5">
         <v>309</v>
       </c>
-      <c r="AC56" s="93">
+      <c r="AC56" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="91" t="s">
+      <c r="A57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="91">
+      <c r="B57" s="2">
         <v>14</v>
       </c>
-      <c r="C57" s="104">
+      <c r="C57" s="2">
         <v>4</v>
       </c>
-      <c r="D57" s="104">
+      <c r="D57" s="2">
         <v>2023</v>
       </c>
-      <c r="E57" s="92">
+      <c r="E57" s="4">
         <v>5</v>
       </c>
-      <c r="F57" s="92">
+      <c r="F57" s="4">
         <v>7.5</v>
       </c>
-      <c r="G57" s="92">
+      <c r="G57" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="H57" s="92">
+      <c r="H57" s="4">
         <v>22.133333333333333</v>
       </c>
-      <c r="I57" s="92">
+      <c r="I57" s="4">
         <v>13.3</v>
       </c>
-      <c r="J57" s="92">
+      <c r="J57" s="4">
         <v>2.9437333333333333</v>
       </c>
-      <c r="K57" s="95">
+      <c r="K57" s="7">
         <v>46</v>
       </c>
-      <c r="L57" s="95">
+      <c r="L57" s="7">
         <v>133</v>
       </c>
-      <c r="M57" s="95">
+      <c r="M57" s="7">
         <v>809</v>
       </c>
-      <c r="N57" s="95">
+      <c r="N57" s="7">
         <v>75</v>
       </c>
-      <c r="O57" s="95">
+      <c r="O57" s="7">
         <v>9</v>
       </c>
-      <c r="P57" s="95">
+      <c r="P57" s="7">
         <v>809</v>
       </c>
-      <c r="Q57" s="95">
+      <c r="Q57" s="7">
         <v>636</v>
       </c>
-      <c r="R57" s="95">
+      <c r="R57" s="7">
         <v>535</v>
       </c>
-      <c r="S57" s="96">
+      <c r="S57" s="8">
         <v>2.4</v>
       </c>
-      <c r="T57" s="95">
+      <c r="T57" s="7">
         <v>163</v>
       </c>
-      <c r="U57" s="95">
+      <c r="U57" s="7">
         <v>282</v>
       </c>
-      <c r="V57" s="95">
+      <c r="V57" s="7">
         <v>103</v>
       </c>
-      <c r="W57" s="96">
+      <c r="W57" s="8">
         <v>70.900000000000006</v>
       </c>
-      <c r="X57" s="95">
+      <c r="X57" s="7">
         <v>50</v>
       </c>
-      <c r="Y57" s="95">
+      <c r="Y57" s="7">
         <v>34</v>
       </c>
-      <c r="Z57" s="96">
+      <c r="Z57" s="8">
         <v>11.2</v>
       </c>
-      <c r="AA57" s="95">
+      <c r="AA57" s="7">
         <v>574</v>
       </c>
-      <c r="AB57" s="95">
+      <c r="AB57" s="7">
         <v>320</v>
       </c>
-      <c r="AC57" s="95">
+      <c r="AC57" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="97">
+      <c r="B58" s="2">
         <v>3</v>
       </c>
-      <c r="C58" s="104">
+      <c r="C58" s="2">
         <v>4</v>
       </c>
-      <c r="D58" s="104">
+      <c r="D58" s="2">
         <v>2023</v>
       </c>
-      <c r="E58" s="98">
+      <c r="E58" s="4">
         <v>5.16</v>
       </c>
-      <c r="F58" s="98">
+      <c r="F58" s="4">
         <v>7.74</v>
       </c>
-      <c r="G58" s="98">
+      <c r="G58" s="4">
         <v>10.4</v>
       </c>
-      <c r="H58" s="98">
+      <c r="H58" s="4">
         <v>13.436692506459949</v>
       </c>
-      <c r="I58" s="98">
+      <c r="I58" s="4">
         <v>12.8</v>
       </c>
-      <c r="J58" s="98">
+      <c r="J58" s="4">
         <v>1.7198966408268734</v>
       </c>
-      <c r="K58" s="99">
+      <c r="K58" s="5">
         <v>38</v>
       </c>
-      <c r="L58" s="99">
+      <c r="L58" s="5">
         <v>128</v>
       </c>
-      <c r="M58" s="99">
+      <c r="M58" s="5">
         <v>844</v>
       </c>
-      <c r="N58" s="99">
+      <c r="N58" s="5">
         <v>82</v>
       </c>
-      <c r="O58" s="99">
+      <c r="O58" s="5">
         <v>19</v>
       </c>
-      <c r="P58" s="99">
+      <c r="P58" s="5">
         <v>854</v>
       </c>
-      <c r="Q58" s="99">
+      <c r="Q58" s="5">
         <v>653</v>
       </c>
-      <c r="R58" s="99">
+      <c r="R58" s="5">
         <v>543</v>
       </c>
-      <c r="S58" s="100">
+      <c r="S58" s="6">
         <v>2.4</v>
       </c>
-      <c r="T58" s="99">
+      <c r="T58" s="5">
         <v>179</v>
       </c>
-      <c r="U58" s="99">
+      <c r="U58" s="5">
         <v>284</v>
       </c>
-      <c r="V58" s="99">
+      <c r="V58" s="5">
         <v>113</v>
       </c>
-      <c r="W58" s="100">
+      <c r="W58" s="6">
         <v>72.099999999999994</v>
       </c>
-      <c r="X58" s="99">
+      <c r="X58" s="5">
         <v>41</v>
       </c>
-      <c r="Y58" s="99">
+      <c r="Y58" s="5">
         <v>39</v>
       </c>
-      <c r="Z58" s="100">
+      <c r="Z58" s="6">
         <v>13.5</v>
       </c>
-      <c r="AA58" s="99">
+      <c r="AA58" s="5">
         <v>582</v>
       </c>
-      <c r="AB58" s="99">
+      <c r="AB58" s="5">
         <v>321</v>
       </c>
-      <c r="AC58" s="99">
+      <c r="AC58" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="97">
+      <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" s="104">
+      <c r="C59" s="2">
         <v>4</v>
       </c>
-      <c r="D59" s="104">
+      <c r="D59" s="2">
         <v>2023</v>
       </c>
-      <c r="E59" s="98">
+      <c r="E59" s="4">
         <v>5.08</v>
       </c>
-      <c r="F59" s="98">
+      <c r="F59" s="4">
         <v>7.62</v>
       </c>
-      <c r="G59" s="98">
+      <c r="G59" s="4">
         <v>14</v>
       </c>
-      <c r="H59" s="98">
+      <c r="H59" s="4">
         <v>18.372703412073491</v>
       </c>
-      <c r="I59" s="98">
+      <c r="I59" s="4">
         <v>14.7</v>
       </c>
-      <c r="J59" s="98">
+      <c r="J59" s="4">
         <v>2.7007874015748028</v>
       </c>
-      <c r="K59" s="99">
+      <c r="K59" s="5">
         <v>42</v>
       </c>
-      <c r="L59" s="99">
+      <c r="L59" s="5">
         <v>147</v>
       </c>
-      <c r="M59" s="99">
+      <c r="M59" s="5">
         <v>776</v>
       </c>
-      <c r="N59" s="99">
+      <c r="N59" s="5">
         <v>73</v>
       </c>
-      <c r="O59" s="99">
+      <c r="O59" s="5">
         <v>14</v>
       </c>
-      <c r="P59" s="99">
+      <c r="P59" s="5">
         <v>767</v>
       </c>
-      <c r="Q59" s="99">
+      <c r="Q59" s="5">
         <v>617</v>
       </c>
-      <c r="R59" s="99">
+      <c r="R59" s="5">
         <v>516</v>
       </c>
-      <c r="S59" s="100">
+      <c r="S59" s="6">
         <v>2.6</v>
       </c>
-      <c r="T59" s="99">
+      <c r="T59" s="5">
         <v>166</v>
       </c>
-      <c r="U59" s="99">
+      <c r="U59" s="5">
         <v>295</v>
       </c>
-      <c r="V59" s="99">
+      <c r="V59" s="5">
         <v>105</v>
       </c>
-      <c r="W59" s="100">
+      <c r="W59" s="6">
         <v>75.599999999999994</v>
       </c>
-      <c r="X59" s="99">
+      <c r="X59" s="5">
         <v>47</v>
       </c>
-      <c r="Y59" s="99">
+      <c r="Y59" s="5">
         <v>33</v>
       </c>
-      <c r="Z59" s="100">
+      <c r="Z59" s="6">
         <v>12</v>
       </c>
-      <c r="AA59" s="99">
+      <c r="AA59" s="5">
         <v>600</v>
       </c>
-      <c r="AB59" s="99">
+      <c r="AB59" s="5">
         <v>320</v>
       </c>
-      <c r="AC59" s="99">
+      <c r="AC59" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="97">
+      <c r="B60" s="2">
         <v>11</v>
       </c>
-      <c r="C60" s="104">
+      <c r="C60" s="2">
         <v>4</v>
       </c>
-      <c r="D60" s="104">
+      <c r="D60" s="2">
         <v>2023</v>
       </c>
-      <c r="E60" s="98">
+      <c r="E60" s="4">
         <v>5.13</v>
       </c>
-      <c r="F60" s="98">
+      <c r="F60" s="4">
         <v>7.6950000000000003</v>
       </c>
-      <c r="G60" s="98">
+      <c r="G60" s="4">
         <v>10</v>
       </c>
-      <c r="H60" s="98">
+      <c r="H60" s="4">
         <v>12.995451591942819</v>
       </c>
-      <c r="I60" s="98">
+      <c r="I60" s="4">
         <v>13.8</v>
       </c>
-      <c r="J60" s="98">
+      <c r="J60" s="4">
         <v>1.7933723196881093</v>
       </c>
-      <c r="K60" s="99">
+      <c r="K60" s="5">
         <v>44</v>
       </c>
-      <c r="L60" s="99">
+      <c r="L60" s="5">
         <v>138</v>
       </c>
-      <c r="M60" s="99">
+      <c r="M60" s="5">
         <v>840</v>
       </c>
-      <c r="N60" s="99">
+      <c r="N60" s="5">
         <v>78</v>
       </c>
-      <c r="O60" s="99">
+      <c r="O60" s="5">
         <v>11</v>
       </c>
-      <c r="P60" s="99">
+      <c r="P60" s="5">
         <v>850</v>
       </c>
-      <c r="Q60" s="99">
+      <c r="Q60" s="5">
         <v>648</v>
       </c>
-      <c r="R60" s="99">
+      <c r="R60" s="5">
         <v>540</v>
       </c>
-      <c r="S60" s="100">
+      <c r="S60" s="6">
         <v>2.4</v>
       </c>
-      <c r="T60" s="99">
+      <c r="T60" s="5">
         <v>167</v>
       </c>
-      <c r="U60" s="99">
+      <c r="U60" s="5">
         <v>277</v>
       </c>
-      <c r="V60" s="99">
+      <c r="V60" s="5">
         <v>111</v>
       </c>
-      <c r="W60" s="100">
+      <c r="W60" s="6">
         <v>75.2</v>
       </c>
-      <c r="X60" s="99">
+      <c r="X60" s="5">
         <v>45</v>
       </c>
-      <c r="Y60" s="99">
+      <c r="Y60" s="5">
         <v>40</v>
       </c>
-      <c r="Z60" s="100">
+      <c r="Z60" s="6">
         <v>12.6</v>
       </c>
-      <c r="AA60" s="99">
+      <c r="AA60" s="5">
         <v>572</v>
       </c>
-      <c r="AB60" s="99">
+      <c r="AB60" s="5">
         <v>319</v>
       </c>
-      <c r="AC60" s="99">
+      <c r="AC60" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="97">
+      <c r="B61" s="2">
         <v>12</v>
       </c>
-      <c r="C61" s="104">
+      <c r="C61" s="2">
         <v>4</v>
       </c>
-      <c r="D61" s="104">
+      <c r="D61" s="2">
         <v>2023</v>
       </c>
-      <c r="E61" s="98">
+      <c r="E61" s="4">
         <v>5.0599999999999996</v>
       </c>
-      <c r="F61" s="98">
+      <c r="F61" s="4">
         <v>7.59</v>
       </c>
-      <c r="G61" s="98">
+      <c r="G61" s="4">
         <v>14</v>
       </c>
-      <c r="H61" s="98">
+      <c r="H61" s="4">
         <v>18.445322793148879</v>
       </c>
-      <c r="I61" s="98">
+      <c r="I61" s="4">
         <v>14.1</v>
       </c>
-      <c r="J61" s="98">
+      <c r="J61" s="4">
         <v>2.6007905138339917</v>
       </c>
-      <c r="K61" s="101">
+      <c r="K61" s="7">
         <v>42</v>
       </c>
-      <c r="L61" s="101">
+      <c r="L61" s="7">
         <v>141</v>
       </c>
-      <c r="M61" s="101">
+      <c r="M61" s="7">
         <v>803</v>
       </c>
-      <c r="N61" s="101">
+      <c r="N61" s="7">
         <v>78</v>
       </c>
-      <c r="O61" s="101">
+      <c r="O61" s="7">
         <v>22</v>
       </c>
-      <c r="P61" s="101">
+      <c r="P61" s="7">
         <v>802</v>
       </c>
-      <c r="Q61" s="101">
+      <c r="Q61" s="7">
         <v>630</v>
       </c>
-      <c r="R61" s="101">
+      <c r="R61" s="7">
         <v>524</v>
       </c>
-      <c r="S61" s="102">
+      <c r="S61" s="8">
         <v>2.5</v>
       </c>
-      <c r="T61" s="101">
+      <c r="T61" s="7">
         <v>179</v>
       </c>
-      <c r="U61" s="101">
+      <c r="U61" s="7">
         <v>289</v>
       </c>
-      <c r="V61" s="101">
+      <c r="V61" s="7">
         <v>111</v>
       </c>
-      <c r="W61" s="102">
+      <c r="W61" s="8">
         <v>71.599999999999994</v>
       </c>
-      <c r="X61" s="101">
+      <c r="X61" s="7">
         <v>40</v>
       </c>
-      <c r="Y61" s="101">
+      <c r="Y61" s="7">
         <v>36</v>
       </c>
-      <c r="Z61" s="102">
+      <c r="Z61" s="8">
         <v>13.8</v>
       </c>
-      <c r="AA61" s="101">
+      <c r="AA61" s="7">
         <v>581</v>
       </c>
-      <c r="AB61" s="101">
+      <c r="AB61" s="7">
         <v>316</v>
       </c>
-      <c r="AC61" s="101">
+      <c r="AC61" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="104">
+      <c r="B62" s="2">
         <v>1</v>
       </c>
-      <c r="C62" s="104">
+      <c r="C62" s="2">
         <v>4</v>
       </c>
-      <c r="D62" s="104">
+      <c r="D62" s="2">
         <v>2023</v>
       </c>
-      <c r="E62" s="110">
+      <c r="E62" s="12">
         <v>5.27</v>
       </c>
-      <c r="F62" s="105">
+      <c r="F62" s="4">
         <v>7.9049999999999994</v>
       </c>
-      <c r="G62" s="105">
+      <c r="G62" s="4">
         <v>11</v>
       </c>
-      <c r="H62" s="105">
+      <c r="H62" s="4">
         <v>13.915243516761544</v>
       </c>
-      <c r="I62" s="105">
+      <c r="I62" s="4">
         <v>14.3</v>
       </c>
-      <c r="J62" s="105">
+      <c r="J62" s="4">
         <v>1.9898798228969008</v>
       </c>
-      <c r="K62" s="106">
+      <c r="K62" s="5">
         <v>38</v>
       </c>
-      <c r="L62" s="106">
+      <c r="L62" s="5">
         <v>143</v>
       </c>
-      <c r="M62" s="106">
+      <c r="M62" s="5">
         <v>818</v>
       </c>
-      <c r="N62" s="106">
+      <c r="N62" s="5">
         <v>77</v>
       </c>
-      <c r="O62" s="106">
+      <c r="O62" s="5">
         <v>18</v>
       </c>
-      <c r="P62" s="106">
+      <c r="P62" s="5">
         <v>824</v>
       </c>
-      <c r="Q62" s="106">
+      <c r="Q62" s="5">
         <v>630</v>
       </c>
-      <c r="R62" s="106">
+      <c r="R62" s="5">
         <v>519</v>
       </c>
-      <c r="S62" s="107">
+      <c r="S62" s="6">
         <v>2.4</v>
       </c>
-      <c r="T62" s="106">
+      <c r="T62" s="5">
         <v>173</v>
       </c>
-      <c r="U62" s="106">
+      <c r="U62" s="5">
         <v>275</v>
       </c>
-      <c r="V62" s="106">
+      <c r="V62" s="5">
         <v>126</v>
       </c>
-      <c r="W62" s="107">
+      <c r="W62" s="6">
         <v>73.900000000000006</v>
       </c>
-      <c r="X62" s="106">
+      <c r="X62" s="5">
         <v>49</v>
       </c>
-      <c r="Y62" s="106">
+      <c r="Y62" s="5">
         <v>42</v>
       </c>
-      <c r="Z62" s="107">
+      <c r="Z62" s="6">
         <v>15.3</v>
       </c>
-      <c r="AA62" s="106">
+      <c r="AA62" s="5">
         <v>544</v>
       </c>
-      <c r="AB62" s="106">
+      <c r="AB62" s="5">
         <v>312</v>
       </c>
-      <c r="AC62" s="106">
+      <c r="AC62" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="104" t="s">
+      <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="104">
+      <c r="B63" s="2">
         <v>2</v>
       </c>
-      <c r="C63" s="104">
+      <c r="C63" s="2">
         <v>4</v>
       </c>
-      <c r="D63" s="104">
+      <c r="D63" s="2">
         <v>2023</v>
       </c>
-      <c r="E63" s="110">
+      <c r="E63" s="12">
         <v>5.09</v>
       </c>
-      <c r="F63" s="105">
+      <c r="F63" s="4">
         <v>7.6349999999999998</v>
       </c>
-      <c r="G63" s="105">
+      <c r="G63" s="4">
         <v>11</v>
       </c>
-      <c r="H63" s="105">
+      <c r="H63" s="4">
         <v>14.407334643091028</v>
       </c>
-      <c r="I63" s="105">
+      <c r="I63" s="4">
         <v>14.5</v>
       </c>
-      <c r="J63" s="105">
+      <c r="J63" s="4">
         <v>2.0890635232481993</v>
       </c>
-      <c r="K63" s="106">
+      <c r="K63" s="5">
         <v>42</v>
       </c>
-      <c r="L63" s="106">
+      <c r="L63" s="5">
         <v>145</v>
       </c>
-      <c r="M63" s="106">
+      <c r="M63" s="5">
         <v>873</v>
       </c>
-      <c r="N63" s="106">
+      <c r="N63" s="5">
         <v>80</v>
       </c>
-      <c r="O63" s="106">
+      <c r="O63" s="5">
         <v>4</v>
       </c>
-      <c r="P63" s="106">
+      <c r="P63" s="5">
         <v>896</v>
       </c>
-      <c r="Q63" s="106">
+      <c r="Q63" s="5">
         <v>666</v>
       </c>
-      <c r="R63" s="106">
+      <c r="R63" s="5">
         <v>559</v>
       </c>
-      <c r="S63" s="107">
+      <c r="S63" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T63" s="106">
+      <c r="T63" s="5">
         <v>161</v>
       </c>
-      <c r="U63" s="106">
+      <c r="U63" s="5">
         <v>262</v>
       </c>
-      <c r="V63" s="106">
+      <c r="V63" s="5">
         <v>119</v>
       </c>
-      <c r="W63" s="107">
+      <c r="W63" s="6">
         <v>73.8</v>
       </c>
-      <c r="X63" s="106">
+      <c r="X63" s="5">
         <v>59</v>
       </c>
-      <c r="Y63" s="106">
+      <c r="Y63" s="5">
         <v>41</v>
       </c>
-      <c r="Z63" s="107">
+      <c r="Z63" s="6">
         <v>16</v>
       </c>
-      <c r="AA63" s="106">
+      <c r="AA63" s="5">
         <v>525</v>
       </c>
-      <c r="AB63" s="106">
+      <c r="AB63" s="5">
         <v>304</v>
       </c>
-      <c r="AC63" s="106">
+      <c r="AC63" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="104" t="s">
+      <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="104">
+      <c r="B64" s="2">
         <v>9</v>
       </c>
-      <c r="C64" s="104">
+      <c r="C64" s="2">
         <v>4</v>
       </c>
-      <c r="D64" s="104">
+      <c r="D64" s="2">
         <v>2023</v>
       </c>
-      <c r="E64" s="110">
+      <c r="E64" s="12">
         <v>5.15</v>
       </c>
-      <c r="F64" s="105">
+      <c r="F64" s="4">
         <v>7.7250000000000005</v>
       </c>
-      <c r="G64" s="105">
+      <c r="G64" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H64" s="105">
+      <c r="H64" s="4">
         <v>11.909385113268607</v>
       </c>
-      <c r="I64" s="105">
+      <c r="I64" s="4">
         <v>13.1</v>
       </c>
-      <c r="J64" s="105">
+      <c r="J64" s="4">
         <v>1.5601294498381875</v>
       </c>
-      <c r="K64" s="106">
+      <c r="K64" s="5">
         <v>43</v>
       </c>
-      <c r="L64" s="106">
+      <c r="L64" s="5">
         <v>131</v>
       </c>
-      <c r="M64" s="106">
+      <c r="M64" s="5">
         <v>877</v>
       </c>
-      <c r="N64" s="106">
+      <c r="N64" s="5">
         <v>85</v>
       </c>
-      <c r="O64" s="106">
+      <c r="O64" s="5">
         <v>18</v>
       </c>
-      <c r="P64" s="106">
+      <c r="P64" s="5">
         <v>896</v>
       </c>
-      <c r="Q64" s="106">
+      <c r="Q64" s="5">
         <v>670</v>
       </c>
-      <c r="R64" s="106">
+      <c r="R64" s="5">
         <v>557</v>
       </c>
-      <c r="S64" s="107">
+      <c r="S64" s="6">
         <v>2.4</v>
       </c>
-      <c r="T64" s="106">
+      <c r="T64" s="5">
         <v>180</v>
       </c>
-      <c r="U64" s="106">
+      <c r="U64" s="5">
         <v>275</v>
       </c>
-      <c r="V64" s="106">
+      <c r="V64" s="5">
         <v>109</v>
       </c>
-      <c r="W64" s="107">
+      <c r="W64" s="6">
         <v>75.400000000000006</v>
       </c>
-      <c r="X64" s="106">
+      <c r="X64" s="5">
         <v>42</v>
       </c>
-      <c r="Y64" s="106">
+      <c r="Y64" s="5">
         <v>42</v>
       </c>
-      <c r="Z64" s="107">
+      <c r="Z64" s="6">
         <v>14.6</v>
       </c>
-      <c r="AA64" s="106">
+      <c r="AA64" s="5">
         <v>577</v>
       </c>
-      <c r="AB64" s="106">
+      <c r="AB64" s="5">
         <v>306</v>
       </c>
-      <c r="AC64" s="106">
+      <c r="AC64" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="104" t="s">
+      <c r="A65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="104">
+      <c r="B65" s="2">
         <v>10</v>
       </c>
-      <c r="C65" s="104">
+      <c r="C65" s="2">
         <v>4</v>
       </c>
-      <c r="D65" s="104">
+      <c r="D65" s="2">
         <v>2023</v>
       </c>
-      <c r="E65" s="110">
+      <c r="E65" s="12">
         <v>5.25</v>
       </c>
-      <c r="F65" s="105">
+      <c r="F65" s="4">
         <v>7.875</v>
       </c>
-      <c r="G65" s="105">
+      <c r="G65" s="4">
         <v>14</v>
       </c>
-      <c r="H65" s="105">
+      <c r="H65" s="4">
         <v>17.777777777777779</v>
       </c>
-      <c r="I65" s="105">
+      <c r="I65" s="4">
         <v>14.3</v>
       </c>
-      <c r="J65" s="105">
+      <c r="J65" s="4">
         <v>2.5422222222222226</v>
       </c>
-      <c r="K65" s="108">
+      <c r="K65" s="7">
         <v>45</v>
       </c>
-      <c r="L65" s="108">
+      <c r="L65" s="7">
         <v>143</v>
       </c>
-      <c r="M65" s="108">
+      <c r="M65" s="7">
         <v>813</v>
       </c>
-      <c r="N65" s="108">
+      <c r="N65" s="7">
         <v>76</v>
       </c>
-      <c r="O65" s="108">
+      <c r="O65" s="7">
         <v>12</v>
       </c>
-      <c r="P65" s="108">
+      <c r="P65" s="7">
         <v>816</v>
       </c>
-      <c r="Q65" s="108">
+      <c r="Q65" s="7">
         <v>634</v>
       </c>
-      <c r="R65" s="108">
+      <c r="R65" s="7">
         <v>531</v>
       </c>
-      <c r="S65" s="109">
+      <c r="S65" s="8">
         <v>2.4</v>
       </c>
-      <c r="T65" s="108">
+      <c r="T65" s="7">
         <v>167</v>
       </c>
-      <c r="U65" s="108">
+      <c r="U65" s="7">
         <v>275</v>
       </c>
-      <c r="V65" s="108">
+      <c r="V65" s="7">
         <v>114</v>
       </c>
-      <c r="W65" s="109">
+      <c r="W65" s="8">
         <v>74.3</v>
       </c>
-      <c r="X65" s="108">
+      <c r="X65" s="7">
         <v>50</v>
       </c>
-      <c r="Y65" s="108">
+      <c r="Y65" s="7">
         <v>36</v>
       </c>
-      <c r="Z65" s="109">
+      <c r="Z65" s="8">
         <v>12.2</v>
       </c>
-      <c r="AA65" s="108">
+      <c r="AA65" s="7">
         <v>555</v>
       </c>
-      <c r="AB65" s="108">
+      <c r="AB65" s="7">
         <v>312</v>
       </c>
-      <c r="AC65" s="108">
+      <c r="AC65" s="7">
         <v>27</v>
       </c>
     </row>
